--- a/Khata.xlsx
+++ b/Khata.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="46">
   <si>
     <t>Sr</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>Gas</t>
+  </si>
+  <si>
+    <t>food</t>
   </si>
 </sst>
 </file>
@@ -501,74 +504,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -576,62 +582,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -940,7 +943,7 @@
   <dimension ref="A1:W64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,60 +967,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="G1" s="42" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="G1" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="N1" s="45" t="s">
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="N1" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="42" t="s">
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="42"/>
-      <c r="V1" s="43" t="s">
+      <c r="U1" s="53"/>
+      <c r="V1" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="43"/>
+      <c r="W1" s="41"/>
     </row>
     <row r="2" spans="1:23" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
       <c r="E2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="48" t="s">
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="49"/>
+      <c r="L2" s="81"/>
       <c r="N2" s="20" t="s">
         <v>3</v>
       </c>
@@ -1036,26 +1039,26 @@
       <c r="S2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="51">
-        <f>(I20/3)</f>
-        <v>0</v>
-      </c>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44">
+      <c r="T2" s="83">
+        <f>(I20/4)</f>
+        <v>812.5</v>
+      </c>
+      <c r="U2" s="76"/>
+      <c r="V2" s="76">
         <f>L20/4</f>
         <v>290</v>
       </c>
-      <c r="W2" s="44"/>
+      <c r="W2" s="76"/>
     </row>
     <row r="3" spans="1:23" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
         <v>1</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="8"/>
       <c r="G3" s="22" t="s">
         <v>6</v>
@@ -1076,21 +1079,29 @@
         <v>8</v>
       </c>
       <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
+      <c r="O3" s="33">
+        <v>500</v>
+      </c>
+      <c r="P3" s="33">
+        <v>500</v>
+      </c>
+      <c r="Q3" s="33">
+        <v>500</v>
+      </c>
       <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
+      <c r="S3" s="33">
+        <v>500</v>
+      </c>
     </row>
     <row r="4" spans="1:23" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21">
         <v>2</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
       <c r="E4" s="8">
         <v>1000</v>
       </c>
@@ -1119,11 +1130,11 @@
       <c r="A5" s="21">
         <v>3</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
       <c r="E5" s="8">
         <v>1000</v>
       </c>
@@ -1152,18 +1163,20 @@
       <c r="A6" s="21">
         <v>4</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
       <c r="E6" s="8">
         <v>1000</v>
       </c>
-      <c r="G6" s="21"/>
+      <c r="G6" s="21">
+        <v>3</v>
+      </c>
       <c r="H6" s="32"/>
       <c r="I6" s="31"/>
-      <c r="J6" s="83">
+      <c r="J6" s="40">
         <v>45606</v>
       </c>
       <c r="K6" s="31" t="s">
@@ -1183,16 +1196,24 @@
       <c r="A7" s="21">
         <v>5</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
       <c r="E7" s="6"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="23"/>
+      <c r="G7" s="21">
+        <v>4</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="31">
+        <v>3250</v>
+      </c>
+      <c r="J7" s="23">
+        <v>45608</v>
+      </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="N7" s="33"/>
@@ -1206,11 +1227,11 @@
       <c r="A8" s="21">
         <v>6</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
       <c r="E8" s="6">
         <v>1000</v>
       </c>
@@ -1228,12 +1249,12 @@
       <c r="S8" s="33"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
       <c r="E9" s="6">
         <f>SUM(E3:E8)</f>
         <v>4000</v>
@@ -1288,12 +1309,12 @@
       <c r="S11" s="33"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
       <c r="G12" s="21"/>
       <c r="H12" s="8"/>
       <c r="I12" s="6"/>
@@ -1308,13 +1329,13 @@
       <c r="S12" s="33"/>
     </row>
     <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="74">
+      <c r="A13" s="42">
         <f>(E9+N20+O20+P20+Q20+R20+S20)-(1567+L20+I20)</f>
-        <v>1273</v>
-      </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="76"/>
+        <v>23</v>
+      </c>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="44"/>
       <c r="G13" s="21"/>
       <c r="H13" s="8"/>
       <c r="I13" s="6"/>
@@ -1329,10 +1350,10 @@
       <c r="S13" s="33"/>
     </row>
     <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="77"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="79"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="47"/>
       <c r="G14" s="21"/>
       <c r="H14" s="8"/>
       <c r="I14" s="6"/>
@@ -1347,10 +1368,10 @@
       <c r="S14" s="33"/>
     </row>
     <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="80"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="82"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="50"/>
       <c r="G15" s="21"/>
       <c r="H15" s="8"/>
       <c r="I15" s="6"/>
@@ -1441,13 +1462,13 @@
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="13"/>
-      <c r="G20" s="60" t="s">
+      <c r="G20" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="61"/>
+      <c r="H20" s="55"/>
       <c r="I20" s="6">
         <f>SUM(I4:I19)</f>
-        <v>0</v>
+        <v>3250</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6" t="s">
@@ -1463,15 +1484,15 @@
       </c>
       <c r="O20" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="P20" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="Q20" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="R20" s="16">
         <f t="shared" si="0"/>
@@ -1479,7 +1500,7 @@
       </c>
       <c r="S20" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -1492,165 +1513,165 @@
       <c r="B23" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
       <c r="F23" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="62" t="s">
+      <c r="G23" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="62"/>
+      <c r="H23" s="75"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B24" s="21">
         <v>1</v>
       </c>
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
       <c r="F24" s="14"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B25" s="21">
         <v>2</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
       <c r="F25" s="14">
         <f>E4+O20-(T2+V2+K61)</f>
-        <v>710</v>
-      </c>
-      <c r="G25" s="41" t="str">
+        <v>397.5</v>
+      </c>
+      <c r="G25" s="63" t="str">
         <f t="shared" ref="G25:G29" si="1">IF(F25&lt;0,"please pay","good")</f>
         <v>good</v>
       </c>
-      <c r="H25" s="41"/>
+      <c r="H25" s="63"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B26" s="21">
         <v>3</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
       <c r="F26" s="14">
         <f>E5+P20-(T2+V2+L61)</f>
-        <v>710</v>
-      </c>
-      <c r="G26" s="41" t="str">
+        <v>397.5</v>
+      </c>
+      <c r="G26" s="63" t="str">
         <f t="shared" si="1"/>
         <v>good</v>
       </c>
-      <c r="H26" s="41"/>
+      <c r="H26" s="63"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B27" s="21">
         <v>4</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
       <c r="F27" s="14">
         <f>E6+Q20-(T2+V2+M61)</f>
-        <v>710</v>
-      </c>
-      <c r="G27" s="41" t="str">
+        <v>397.5</v>
+      </c>
+      <c r="G27" s="63" t="str">
         <f t="shared" si="1"/>
         <v>good</v>
       </c>
-      <c r="H27" s="41"/>
+      <c r="H27" s="63"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B28" s="21">
         <v>5</v>
       </c>
-      <c r="C28" s="40" t="s">
+      <c r="C28" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
       <c r="F28" s="15"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B29" s="21">
         <v>6</v>
       </c>
-      <c r="C29" s="40" t="s">
+      <c r="C29" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
       <c r="F29" s="15">
         <f>E8+S20-(V2+O61)</f>
-        <v>710</v>
-      </c>
-      <c r="G29" s="52" t="str">
+        <v>1210</v>
+      </c>
+      <c r="G29" s="51" t="str">
         <f t="shared" si="1"/>
         <v>good</v>
       </c>
-      <c r="H29" s="53"/>
+      <c r="H29" s="52"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
       <c r="F30" s="15"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="53"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="52"/>
     </row>
     <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="54" t="s">
+      <c r="B32" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="55"/>
-      <c r="O32" s="56"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="70"/>
+      <c r="L32" s="70"/>
+      <c r="M32" s="70"/>
+      <c r="N32" s="70"/>
+      <c r="O32" s="71"/>
     </row>
     <row r="33" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="65" t="s">
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="57"/>
-      <c r="N33" s="57"/>
-      <c r="O33" s="53"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="72"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="72"/>
+      <c r="N33" s="72"/>
+      <c r="O33" s="52"/>
     </row>
     <row r="34" spans="1:17" s="29" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="27" t="s">
@@ -1668,10 +1689,10 @@
       <c r="F34" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="G34" s="66" t="s">
+      <c r="G34" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="H34" s="66"/>
+      <c r="H34" s="68"/>
       <c r="I34" s="30" t="s">
         <v>20</v>
       </c>
@@ -1687,10 +1708,10 @@
       <c r="M34" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="N34" s="58" t="s">
+      <c r="N34" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="O34" s="58"/>
+      <c r="O34" s="73"/>
     </row>
     <row r="35" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="26">
@@ -1702,15 +1723,15 @@
       <c r="D35" s="25"/>
       <c r="E35" s="25"/>
       <c r="F35" s="24"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
       <c r="I35" s="24"/>
       <c r="J35" s="24"/>
       <c r="K35" s="24"/>
       <c r="L35" s="24"/>
       <c r="M35" s="24"/>
-      <c r="N35" s="63"/>
-      <c r="O35" s="64"/>
+      <c r="N35" s="64"/>
+      <c r="O35" s="65"/>
     </row>
     <row r="36" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="26">
@@ -1725,36 +1746,36 @@
       </c>
       <c r="E36" s="25">
         <f>O20</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F36" s="24">
         <f t="shared" ref="F36:F40" si="3">SUM(D36:E36)</f>
-        <v>1000</v>
-      </c>
-      <c r="G36" s="41">
+        <v>1500</v>
+      </c>
+      <c r="G36" s="63">
         <f>T2+K61</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="41"/>
+        <v>812.5</v>
+      </c>
+      <c r="H36" s="63"/>
       <c r="I36" s="24">
         <f>V2</f>
         <v>290</v>
       </c>
       <c r="J36" s="24">
         <f t="shared" ref="J36:J40" si="4">SUM(G36:I36)</f>
-        <v>290</v>
+        <v>1102.5</v>
       </c>
       <c r="K36" s="24">
         <f t="shared" ref="K36:K40" si="5">F36-J36</f>
-        <v>710</v>
+        <v>397.5</v>
       </c>
       <c r="L36" s="24"/>
       <c r="M36" s="24">
         <f t="shared" ref="M36:M40" si="6">L36-K36</f>
-        <v>-710</v>
-      </c>
-      <c r="N36" s="63"/>
-      <c r="O36" s="64"/>
+        <v>-397.5</v>
+      </c>
+      <c r="N36" s="64"/>
+      <c r="O36" s="65"/>
     </row>
     <row r="37" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="26">
@@ -1769,36 +1790,36 @@
       </c>
       <c r="E37" s="25">
         <f>P20</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F37" s="24">
         <f t="shared" si="3"/>
-        <v>1000</v>
-      </c>
-      <c r="G37" s="41">
+        <v>1500</v>
+      </c>
+      <c r="G37" s="63">
         <f>T2+L61</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="41"/>
+        <v>812.5</v>
+      </c>
+      <c r="H37" s="63"/>
       <c r="I37" s="24">
         <f>V2</f>
         <v>290</v>
       </c>
       <c r="J37" s="24">
         <f t="shared" si="4"/>
-        <v>290</v>
+        <v>1102.5</v>
       </c>
       <c r="K37" s="24">
         <f t="shared" si="5"/>
-        <v>710</v>
+        <v>397.5</v>
       </c>
       <c r="L37" s="24"/>
       <c r="M37" s="24">
         <f t="shared" si="6"/>
-        <v>-710</v>
-      </c>
-      <c r="N37" s="63"/>
-      <c r="O37" s="64"/>
+        <v>-397.5</v>
+      </c>
+      <c r="N37" s="64"/>
+      <c r="O37" s="65"/>
     </row>
     <row r="38" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="26">
@@ -1813,36 +1834,36 @@
       </c>
       <c r="E38" s="25">
         <f>Q20</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F38" s="24">
         <f t="shared" si="3"/>
-        <v>1000</v>
-      </c>
-      <c r="G38" s="41">
+        <v>1500</v>
+      </c>
+      <c r="G38" s="63">
         <f>T2+M61</f>
-        <v>0</v>
-      </c>
-      <c r="H38" s="41"/>
+        <v>812.5</v>
+      </c>
+      <c r="H38" s="63"/>
       <c r="I38" s="24">
         <f>V2</f>
         <v>290</v>
       </c>
       <c r="J38" s="24">
         <f t="shared" si="4"/>
-        <v>290</v>
+        <v>1102.5</v>
       </c>
       <c r="K38" s="24">
         <f t="shared" si="5"/>
-        <v>710</v>
+        <v>397.5</v>
       </c>
       <c r="L38" s="24"/>
       <c r="M38" s="24">
         <f t="shared" si="6"/>
-        <v>-710</v>
-      </c>
-      <c r="N38" s="63"/>
-      <c r="O38" s="64"/>
+        <v>-397.5</v>
+      </c>
+      <c r="N38" s="64"/>
+      <c r="O38" s="65"/>
     </row>
     <row r="39" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="26">
@@ -1854,8 +1875,8 @@
       <c r="D39" s="25"/>
       <c r="E39" s="25"/>
       <c r="F39" s="24"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="63"/>
       <c r="I39" s="24"/>
       <c r="J39" s="24"/>
       <c r="K39" s="24"/>
@@ -1863,8 +1884,8 @@
       <c r="M39" s="24">
         <v>1567</v>
       </c>
-      <c r="N39" s="63"/>
-      <c r="O39" s="64"/>
+      <c r="N39" s="64"/>
+      <c r="O39" s="65"/>
     </row>
     <row r="40" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="26">
@@ -1879,68 +1900,71 @@
       </c>
       <c r="E40" s="25">
         <f>S20</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F40" s="24">
         <f t="shared" si="3"/>
-        <v>1000</v>
-      </c>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
+        <v>1500</v>
+      </c>
+      <c r="G40" s="63">
+        <f>T2</f>
+        <v>812.5</v>
+      </c>
+      <c r="H40" s="63"/>
       <c r="I40" s="24">
         <f>V2</f>
         <v>290</v>
       </c>
       <c r="J40" s="24">
         <f t="shared" si="4"/>
-        <v>290</v>
+        <v>1102.5</v>
       </c>
       <c r="K40" s="24">
         <f t="shared" si="5"/>
-        <v>710</v>
+        <v>397.5</v>
       </c>
       <c r="L40" s="24"/>
       <c r="M40" s="24">
         <f t="shared" si="6"/>
-        <v>-710</v>
-      </c>
-      <c r="N40" s="63"/>
-      <c r="O40" s="64"/>
+        <v>-397.5</v>
+      </c>
+      <c r="N40" s="64"/>
+      <c r="O40" s="65"/>
     </row>
     <row r="42" spans="1:17" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="36"/>
-      <c r="B42" s="68" t="s">
+      <c r="B42" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="69"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="69"/>
-      <c r="G42" s="69"/>
-      <c r="H42" s="70"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="59"/>
       <c r="I42" s="36"/>
-      <c r="J42" s="42" t="s">
+      <c r="J42" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="K42" s="42"/>
-      <c r="L42" s="42"/>
-      <c r="M42" s="42"/>
-      <c r="N42" s="42"/>
-      <c r="O42" s="42"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="53"/>
+      <c r="M42" s="53"/>
+      <c r="N42" s="53"/>
+      <c r="O42" s="53"/>
       <c r="Q42" s="36"/>
     </row>
     <row r="43" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="67" t="s">
+      <c r="B43" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="67"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="71" t="s">
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="G43" s="72"/>
-      <c r="H43" s="73"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="62"/>
       <c r="J43" s="35" t="s">
         <v>3</v>
       </c>
@@ -1966,8 +1990,8 @@
       <c r="D44" s="33"/>
       <c r="E44" s="34"/>
       <c r="F44" s="33"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="53"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="52"/>
       <c r="J44" s="33"/>
       <c r="K44" s="33"/>
       <c r="L44" s="33"/>
@@ -1981,8 +2005,8 @@
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
       <c r="F45" s="33"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="53"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="52"/>
       <c r="J45" s="33"/>
       <c r="K45" s="33"/>
       <c r="L45" s="33"/>
@@ -1996,8 +2020,8 @@
       <c r="D46" s="33"/>
       <c r="E46" s="33"/>
       <c r="F46" s="33"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="53"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="52"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
@@ -2011,8 +2035,8 @@
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
       <c r="F47" s="33"/>
-      <c r="G47" s="52"/>
-      <c r="H47" s="53"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="52"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
@@ -2026,8 +2050,8 @@
       <c r="D48" s="33"/>
       <c r="E48" s="33"/>
       <c r="F48" s="33"/>
-      <c r="G48" s="52"/>
-      <c r="H48" s="53"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="52"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
@@ -2041,8 +2065,8 @@
       <c r="D49" s="33"/>
       <c r="E49" s="33"/>
       <c r="F49" s="33"/>
-      <c r="G49" s="52"/>
-      <c r="H49" s="53"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="52"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
@@ -2056,8 +2080,8 @@
       <c r="D50" s="33"/>
       <c r="E50" s="33"/>
       <c r="F50" s="33"/>
-      <c r="G50" s="52"/>
-      <c r="H50" s="53"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="52"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
@@ -2071,8 +2095,8 @@
       <c r="D51" s="33"/>
       <c r="E51" s="33"/>
       <c r="F51" s="33"/>
-      <c r="G51" s="52"/>
-      <c r="H51" s="53"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="52"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
@@ -2086,8 +2110,8 @@
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="33"/>
-      <c r="G52" s="52"/>
-      <c r="H52" s="53"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="52"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
@@ -2101,8 +2125,8 @@
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="33"/>
-      <c r="G53" s="52"/>
-      <c r="H53" s="53"/>
+      <c r="G53" s="51"/>
+      <c r="H53" s="52"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
@@ -2116,8 +2140,8 @@
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="33"/>
-      <c r="G54" s="52"/>
-      <c r="H54" s="53"/>
+      <c r="G54" s="51"/>
+      <c r="H54" s="52"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
@@ -2131,8 +2155,8 @@
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="33"/>
-      <c r="G55" s="52"/>
-      <c r="H55" s="53"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="52"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
@@ -2146,8 +2170,8 @@
       <c r="D56" s="33"/>
       <c r="E56" s="33"/>
       <c r="F56" s="33"/>
-      <c r="G56" s="52"/>
-      <c r="H56" s="53"/>
+      <c r="G56" s="51"/>
+      <c r="H56" s="52"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
@@ -2161,8 +2185,8 @@
       <c r="D57" s="33"/>
       <c r="E57" s="33"/>
       <c r="F57" s="33"/>
-      <c r="G57" s="52"/>
-      <c r="H57" s="53"/>
+      <c r="G57" s="51"/>
+      <c r="H57" s="52"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
@@ -2176,8 +2200,8 @@
       <c r="D58" s="33"/>
       <c r="E58" s="33"/>
       <c r="F58" s="33"/>
-      <c r="G58" s="52"/>
-      <c r="H58" s="53"/>
+      <c r="G58" s="51"/>
+      <c r="H58" s="52"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
@@ -2191,8 +2215,8 @@
       <c r="D59" s="33"/>
       <c r="E59" s="33"/>
       <c r="F59" s="33"/>
-      <c r="G59" s="52"/>
-      <c r="H59" s="53"/>
+      <c r="G59" s="51"/>
+      <c r="H59" s="52"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
@@ -2206,8 +2230,8 @@
       <c r="D60" s="33"/>
       <c r="E60" s="33"/>
       <c r="F60" s="33"/>
-      <c r="G60" s="52"/>
-      <c r="H60" s="53"/>
+      <c r="G60" s="51"/>
+      <c r="H60" s="52"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
@@ -2221,8 +2245,8 @@
       <c r="D61" s="33"/>
       <c r="E61" s="33"/>
       <c r="F61" s="33"/>
-      <c r="G61" s="52"/>
-      <c r="H61" s="53"/>
+      <c r="G61" s="51"/>
+      <c r="H61" s="52"/>
       <c r="J61" s="33">
         <f t="shared" ref="J61:O61" si="7">SUM(J44:J60)</f>
         <v>0</v>
@@ -2254,8 +2278,8 @@
       <c r="D62" s="33"/>
       <c r="E62" s="33"/>
       <c r="F62" s="33"/>
-      <c r="G62" s="52"/>
-      <c r="H62" s="53"/>
+      <c r="G62" s="51"/>
+      <c r="H62" s="52"/>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B63" s="38"/>
@@ -2263,14 +2287,14 @@
       <c r="D63" s="33"/>
       <c r="E63" s="33"/>
       <c r="F63" s="33"/>
-      <c r="G63" s="52"/>
-      <c r="H63" s="53"/>
+      <c r="G63" s="51"/>
+      <c r="H63" s="52"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B64" s="60" t="s">
+      <c r="B64" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C64" s="61"/>
+      <c r="C64" s="55"/>
       <c r="D64" s="33">
         <f>SUM(D45:D63)</f>
         <v>0</v>
@@ -2279,14 +2303,78 @@
       <c r="F64" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G64" s="52">
+      <c r="G64" s="51">
         <f>SUM(G47:G63)</f>
         <v>0</v>
       </c>
-      <c r="H64" s="53"/>
+      <c r="H64" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="B32:O32"/>
+    <mergeCell ref="G33:O33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A13:D15"/>
     <mergeCell ref="G44:H44"/>
@@ -2303,70 +2391,6 @@
     <mergeCell ref="G58:H58"/>
     <mergeCell ref="G59:H59"/>
     <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="B32:O32"/>
-    <mergeCell ref="G33:O33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="98" orientation="landscape" r:id="rId1"/>

--- a/Khata.xlsx
+++ b/Khata.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="51">
   <si>
     <t>Sr</t>
   </si>
@@ -157,6 +157,21 @@
   </si>
   <si>
     <t>food</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>pepsi</t>
+  </si>
+  <si>
+    <t>samosa</t>
+  </si>
+  <si>
+    <t>Aqsa Rasheed</t>
   </si>
 </sst>
 </file>
@@ -391,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -458,38 +473,23 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -507,34 +507,67 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -543,7 +576,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -552,29 +588,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -582,59 +597,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -940,10 +946,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W64"/>
+  <dimension ref="A1:W65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,60 +973,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="G1" s="53" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="G1" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="N1" s="77" t="s">
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="N1" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="53" t="s">
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="53"/>
-      <c r="V1" s="41" t="s">
+      <c r="U1" s="47"/>
+      <c r="V1" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="41"/>
+      <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
       <c r="E2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="80" t="s">
+      <c r="G2" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="80" t="s">
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="81"/>
+      <c r="L2" s="54"/>
       <c r="N2" s="20" t="s">
         <v>3</v>
       </c>
@@ -1039,26 +1045,26 @@
       <c r="S2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="83">
+      <c r="T2" s="56">
         <f>(I20/4)</f>
         <v>812.5</v>
       </c>
-      <c r="U2" s="76"/>
-      <c r="V2" s="76">
+      <c r="U2" s="49"/>
+      <c r="V2" s="49">
         <f>L20/4</f>
-        <v>290</v>
-      </c>
-      <c r="W2" s="76"/>
+        <v>367</v>
+      </c>
+      <c r="W2" s="49"/>
     </row>
     <row r="3" spans="1:23" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
         <v>1</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
       <c r="E3" s="8"/>
       <c r="G3" s="22" t="s">
         <v>6</v>
@@ -1078,18 +1084,20 @@
       <c r="L3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33">
+      <c r="N3" s="29">
+        <v>705</v>
+      </c>
+      <c r="O3" s="29">
         <v>500</v>
       </c>
-      <c r="P3" s="33">
+      <c r="P3" s="29">
         <v>500</v>
       </c>
-      <c r="Q3" s="33">
+      <c r="Q3" s="29">
         <v>500</v>
       </c>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33">
+      <c r="R3" s="29"/>
+      <c r="S3" s="29">
         <v>500</v>
       </c>
     </row>
@@ -1097,11 +1105,11 @@
       <c r="A4" s="21">
         <v>2</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="8">
         <v>1000</v>
       </c>
@@ -1113,102 +1121,116 @@
       <c r="J4" s="9">
         <v>45600</v>
       </c>
-      <c r="K4" s="39" t="s">
+      <c r="K4" s="34" t="s">
         <v>38</v>
       </c>
       <c r="L4" s="6">
         <v>560</v>
       </c>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
+      <c r="N4" s="29">
+        <v>150</v>
+      </c>
+      <c r="O4" s="29">
+        <v>1205</v>
+      </c>
+      <c r="P4" s="29">
+        <v>880</v>
+      </c>
+      <c r="Q4" s="29">
+        <v>100</v>
+      </c>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29">
+        <v>200</v>
+      </c>
     </row>
     <row r="5" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
         <v>3</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
       <c r="E5" s="8">
         <v>1000</v>
       </c>
       <c r="G5" s="21">
         <v>2</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="31"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="27"/>
       <c r="J5" s="9">
         <v>45604</v>
       </c>
-      <c r="K5" s="31" t="s">
+      <c r="K5" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="31">
+      <c r="L5" s="27">
         <v>300</v>
       </c>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29">
+        <v>260</v>
+      </c>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
     </row>
     <row r="6" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
         <v>4</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="8">
         <v>1000</v>
       </c>
       <c r="G6" s="21">
         <v>3</v>
       </c>
-      <c r="H6" s="32"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="40">
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="35">
         <v>45606</v>
       </c>
-      <c r="K6" s="31" t="s">
+      <c r="K6" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="31">
+      <c r="L6" s="27">
         <v>300</v>
       </c>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29">
+        <v>50</v>
+      </c>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
     </row>
     <row r="7" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
         <v>5</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
       <c r="E7" s="6"/>
       <c r="G7" s="21">
         <v>4</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="31">
+      <c r="I7" s="27">
         <v>3250</v>
       </c>
       <c r="J7" s="23">
@@ -1216,174 +1238,202 @@
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29">
+        <v>1205</v>
+      </c>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
         <v>6</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
       <c r="E8" s="6">
         <v>1000</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="31"/>
+      <c r="G8" s="21">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
       <c r="J8" s="23"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
+      <c r="K8" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="27">
+        <v>100</v>
+      </c>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
       <c r="E9" s="6">
         <f>SUM(E3:E8)</f>
         <v>4000</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="31"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
+      <c r="G9" s="21">
+        <v>6</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="23">
+        <v>45622</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="27">
+        <v>208</v>
+      </c>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="13"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="8"/>
+      <c r="G10" s="21">
+        <v>7</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="13"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="8"/>
+      <c r="G11" s="21">
+        <v>8</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="8"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="G12" s="21">
+        <v>9</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
     </row>
     <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="42">
-        <f>(E9+N20+O20+P20+Q20+R20+S20)-(1567+L20+I20)</f>
-        <v>23</v>
-      </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="44"/>
+      <c r="A13" s="70">
+        <f>(E9+N20+O20+P20+Q20+R20+S20)-(1567+L20+I20+D65)</f>
+        <v>130</v>
+      </c>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="72"/>
       <c r="G13" s="21"/>
       <c r="H13" s="8"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
     </row>
     <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="47"/>
+      <c r="A14" s="73"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="75"/>
       <c r="G14" s="21"/>
       <c r="H14" s="8"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
     </row>
     <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="50"/>
+      <c r="A15" s="76"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="78"/>
       <c r="G15" s="21"/>
       <c r="H15" s="8"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
     </row>
     <row r="16" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
@@ -1396,12 +1446,12 @@
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
     </row>
     <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
@@ -1414,12 +1464,12 @@
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="33"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
@@ -1432,12 +1482,12 @@
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
@@ -1450,22 +1500,22 @@
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="33"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="13"/>
-      <c r="G20" s="54" t="s">
+      <c r="G20" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="55"/>
+      <c r="H20" s="62"/>
       <c r="I20" s="6">
         <f>SUM(I4:I19)</f>
         <v>3250</v>
@@ -1476,23 +1526,23 @@
       </c>
       <c r="L20" s="6">
         <f>SUM(L4:L19)</f>
-        <v>1160</v>
+        <v>1468</v>
       </c>
       <c r="N20" s="16">
         <f t="shared" ref="N20:S20" si="0">SUM(N3:N19)</f>
-        <v>0</v>
+        <v>855</v>
       </c>
       <c r="O20" s="16">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>1705</v>
       </c>
       <c r="P20" s="16">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>1380</v>
       </c>
       <c r="Q20" s="16">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>2115</v>
       </c>
       <c r="R20" s="16">
         <f t="shared" si="0"/>
@@ -1500,7 +1550,7 @@
       </c>
       <c r="S20" s="16">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>700</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -1513,820 +1563,932 @@
       <c r="B23" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="53" t="s">
+      <c r="C23" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
       <c r="F23" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="75" t="s">
+      <c r="G23" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="75"/>
+      <c r="H23" s="63"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B24" s="21">
         <v>1</v>
       </c>
-      <c r="C24" s="66" t="s">
+      <c r="C24" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
       <c r="F24" s="14"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B25" s="21">
         <v>2</v>
       </c>
-      <c r="C25" s="66" t="s">
+      <c r="C25" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
       <c r="F25" s="14">
-        <f>E4+O20-(T2+V2+K61)</f>
-        <v>397.5</v>
-      </c>
-      <c r="G25" s="63" t="str">
+        <f>E4+O20-(T2+V2+K62)</f>
+        <v>320.5</v>
+      </c>
+      <c r="G25" s="46" t="str">
         <f t="shared" ref="G25:G29" si="1">IF(F25&lt;0,"please pay","good")</f>
         <v>good</v>
       </c>
-      <c r="H25" s="63"/>
+      <c r="H25" s="46"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B26" s="21">
         <v>3</v>
       </c>
-      <c r="C26" s="66" t="s">
+      <c r="C26" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
       <c r="F26" s="14">
-        <f>E5+P20-(T2+V2+L61)</f>
-        <v>397.5</v>
-      </c>
-      <c r="G26" s="63" t="str">
+        <f>E5+P20-(T2+V2+L62)</f>
+        <v>320.5</v>
+      </c>
+      <c r="G26" s="46" t="str">
         <f t="shared" si="1"/>
         <v>good</v>
       </c>
-      <c r="H26" s="63"/>
+      <c r="H26" s="46"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B27" s="21">
         <v>4</v>
       </c>
-      <c r="C27" s="66" t="s">
+      <c r="C27" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
       <c r="F27" s="14">
-        <f>E6+Q20-(T2+V2+M61)</f>
-        <v>397.5</v>
-      </c>
-      <c r="G27" s="63" t="str">
+        <f>E6+Q20-(T2+V2+M62)</f>
+        <v>730.5</v>
+      </c>
+      <c r="G27" s="46" t="str">
         <f t="shared" si="1"/>
         <v>good</v>
       </c>
-      <c r="H27" s="63"/>
+      <c r="H27" s="46"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B28" s="21">
         <v>5</v>
       </c>
-      <c r="C28" s="66" t="s">
+      <c r="C28" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
       <c r="F28" s="15"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B29" s="21">
         <v>6</v>
       </c>
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
       <c r="F29" s="15">
-        <f>E8+S20-(V2+O61)</f>
-        <v>1210</v>
-      </c>
-      <c r="G29" s="51" t="str">
+        <f>E8+S20-(T2+V2+O62)</f>
+        <v>520.5</v>
+      </c>
+      <c r="G29" s="57" t="str">
         <f t="shared" si="1"/>
         <v>good</v>
       </c>
-      <c r="H29" s="52"/>
+      <c r="H29" s="58"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="63"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
       <c r="F30" s="15"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="52"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="58"/>
     </row>
     <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="69" t="s">
+      <c r="B32" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="70"/>
-      <c r="K32" s="70"/>
-      <c r="L32" s="70"/>
-      <c r="M32" s="70"/>
-      <c r="N32" s="70"/>
-      <c r="O32" s="71"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
     </row>
     <row r="33" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="67" t="s">
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="72"/>
-      <c r="J33" s="72"/>
-      <c r="K33" s="72"/>
-      <c r="L33" s="72"/>
-      <c r="M33" s="72"/>
-      <c r="N33" s="72"/>
-      <c r="O33" s="52"/>
-    </row>
-    <row r="34" spans="1:17" s="29" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="27" t="s">
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="46"/>
+    </row>
+    <row r="34" spans="1:17" s="26" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="28" t="s">
+      <c r="D34" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E34" s="27" t="s">
+      <c r="E34" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F34" s="30" t="s">
+      <c r="F34" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="G34" s="68" t="s">
+      <c r="G34" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="H34" s="68"/>
-      <c r="I34" s="30" t="s">
+      <c r="H34" s="67"/>
+      <c r="I34" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="27" t="s">
+      <c r="J34" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="K34" s="27" t="s">
+      <c r="K34" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="L34" s="27" t="s">
+      <c r="L34" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="M34" s="27" t="s">
+      <c r="M34" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="N34" s="73" t="s">
+      <c r="N34" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="O34" s="73"/>
+      <c r="O34" s="59"/>
     </row>
     <row r="35" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="26">
+      <c r="B35" s="24">
         <v>1</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="64"/>
-      <c r="O35" s="65"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39">
+        <v>855</v>
+      </c>
+      <c r="F35" s="38">
+        <f>D35+E35</f>
+        <v>855</v>
+      </c>
+      <c r="G35" s="46">
+        <f>J62</f>
+        <v>757</v>
+      </c>
+      <c r="H35" s="46"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38">
+        <f>G35</f>
+        <v>757</v>
+      </c>
+      <c r="K35" s="38">
+        <f>F35-J35</f>
+        <v>98</v>
+      </c>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38">
+        <f>L35-K35</f>
+        <v>-98</v>
+      </c>
+      <c r="N35" s="80"/>
+      <c r="O35" s="80"/>
     </row>
     <row r="36" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="26">
+      <c r="B36" s="24">
         <v>2</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="25">
+      <c r="D36" s="39">
         <f t="shared" ref="D36:D40" si="2">E4</f>
         <v>1000</v>
       </c>
-      <c r="E36" s="25">
+      <c r="E36" s="39">
         <f>O20</f>
-        <v>500</v>
-      </c>
-      <c r="F36" s="24">
+        <v>1705</v>
+      </c>
+      <c r="F36" s="38">
         <f t="shared" ref="F36:F40" si="3">SUM(D36:E36)</f>
-        <v>1500</v>
-      </c>
-      <c r="G36" s="63">
-        <f>T2+K61</f>
-        <v>812.5</v>
-      </c>
-      <c r="H36" s="63"/>
-      <c r="I36" s="24">
+        <v>2705</v>
+      </c>
+      <c r="G36" s="46">
+        <f>T2+K62</f>
+        <v>2017.5</v>
+      </c>
+      <c r="H36" s="46"/>
+      <c r="I36" s="38">
         <f>V2</f>
-        <v>290</v>
-      </c>
-      <c r="J36" s="24">
+        <v>367</v>
+      </c>
+      <c r="J36" s="38">
         <f t="shared" ref="J36:J40" si="4">SUM(G36:I36)</f>
-        <v>1102.5</v>
-      </c>
-      <c r="K36" s="24">
+        <v>2384.5</v>
+      </c>
+      <c r="K36" s="38">
         <f t="shared" ref="K36:K40" si="5">F36-J36</f>
-        <v>397.5</v>
-      </c>
-      <c r="L36" s="24"/>
-      <c r="M36" s="24">
+        <v>320.5</v>
+      </c>
+      <c r="L36" s="38"/>
+      <c r="M36" s="38">
         <f t="shared" ref="M36:M40" si="6">L36-K36</f>
-        <v>-397.5</v>
-      </c>
-      <c r="N36" s="64"/>
-      <c r="O36" s="65"/>
+        <v>-320.5</v>
+      </c>
+      <c r="N36" s="80"/>
+      <c r="O36" s="80"/>
     </row>
     <row r="37" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="26">
+      <c r="B37" s="24">
         <v>3</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="25">
+      <c r="D37" s="39">
         <f t="shared" si="2"/>
         <v>1000</v>
       </c>
-      <c r="E37" s="25">
+      <c r="E37" s="39">
         <f>P20</f>
-        <v>500</v>
-      </c>
-      <c r="F37" s="24">
+        <v>1380</v>
+      </c>
+      <c r="F37" s="38">
         <f t="shared" si="3"/>
-        <v>1500</v>
-      </c>
-      <c r="G37" s="63">
-        <f>T2+L61</f>
-        <v>812.5</v>
-      </c>
-      <c r="H37" s="63"/>
-      <c r="I37" s="24">
+        <v>2380</v>
+      </c>
+      <c r="G37" s="46">
+        <f>T2+L62</f>
+        <v>1692.5</v>
+      </c>
+      <c r="H37" s="46"/>
+      <c r="I37" s="38">
         <f>V2</f>
-        <v>290</v>
-      </c>
-      <c r="J37" s="24">
+        <v>367</v>
+      </c>
+      <c r="J37" s="38">
         <f t="shared" si="4"/>
-        <v>1102.5</v>
-      </c>
-      <c r="K37" s="24">
+        <v>2059.5</v>
+      </c>
+      <c r="K37" s="38">
         <f t="shared" si="5"/>
-        <v>397.5</v>
-      </c>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24">
+        <v>320.5</v>
+      </c>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38">
         <f t="shared" si="6"/>
-        <v>-397.5</v>
-      </c>
-      <c r="N37" s="64"/>
-      <c r="O37" s="65"/>
+        <v>-320.5</v>
+      </c>
+      <c r="N37" s="80"/>
+      <c r="O37" s="80"/>
     </row>
     <row r="38" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="26">
+      <c r="B38" s="24">
         <v>4</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="25">
+      <c r="D38" s="39">
         <f t="shared" si="2"/>
         <v>1000</v>
       </c>
-      <c r="E38" s="25">
+      <c r="E38" s="39">
         <f>Q20</f>
-        <v>500</v>
-      </c>
-      <c r="F38" s="24">
+        <v>2115</v>
+      </c>
+      <c r="F38" s="38">
         <f t="shared" si="3"/>
-        <v>1500</v>
-      </c>
-      <c r="G38" s="63">
-        <f>T2+M61</f>
-        <v>812.5</v>
-      </c>
-      <c r="H38" s="63"/>
-      <c r="I38" s="24">
+        <v>3115</v>
+      </c>
+      <c r="G38" s="46">
+        <f>T2+M62</f>
+        <v>2017.5</v>
+      </c>
+      <c r="H38" s="46"/>
+      <c r="I38" s="38">
         <f>V2</f>
-        <v>290</v>
-      </c>
-      <c r="J38" s="24">
+        <v>367</v>
+      </c>
+      <c r="J38" s="38">
         <f t="shared" si="4"/>
-        <v>1102.5</v>
-      </c>
-      <c r="K38" s="24">
+        <v>2384.5</v>
+      </c>
+      <c r="K38" s="38">
         <f t="shared" si="5"/>
-        <v>397.5</v>
-      </c>
-      <c r="L38" s="24"/>
-      <c r="M38" s="24">
+        <v>730.5</v>
+      </c>
+      <c r="L38" s="38"/>
+      <c r="M38" s="38">
         <f t="shared" si="6"/>
-        <v>-397.5</v>
-      </c>
-      <c r="N38" s="64"/>
-      <c r="O38" s="65"/>
+        <v>-730.5</v>
+      </c>
+      <c r="N38" s="80"/>
+      <c r="O38" s="80"/>
     </row>
     <row r="39" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="26">
+      <c r="B39" s="24">
         <v>5</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="63"/>
-      <c r="H39" s="63"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24">
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="38">
         <v>1567</v>
       </c>
-      <c r="N39" s="64"/>
-      <c r="O39" s="65"/>
-    </row>
-    <row r="40" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="26">
+      <c r="N39" s="80"/>
+      <c r="O39" s="80"/>
+    </row>
+    <row r="40" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="24">
         <v>6</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D40" s="25">
+      <c r="D40" s="39">
         <f t="shared" si="2"/>
         <v>1000</v>
       </c>
-      <c r="E40" s="25">
+      <c r="E40" s="39">
         <f>S20</f>
-        <v>500</v>
-      </c>
-      <c r="F40" s="24">
+        <v>700</v>
+      </c>
+      <c r="F40" s="38">
         <f t="shared" si="3"/>
-        <v>1500</v>
-      </c>
-      <c r="G40" s="63">
+        <v>1700</v>
+      </c>
+      <c r="G40" s="46">
         <f>T2</f>
         <v>812.5</v>
       </c>
-      <c r="H40" s="63"/>
-      <c r="I40" s="24">
+      <c r="H40" s="46"/>
+      <c r="I40" s="38">
         <f>V2</f>
-        <v>290</v>
-      </c>
-      <c r="J40" s="24">
+        <v>367</v>
+      </c>
+      <c r="J40" s="38">
         <f t="shared" si="4"/>
-        <v>1102.5</v>
-      </c>
-      <c r="K40" s="24">
+        <v>1179.5</v>
+      </c>
+      <c r="K40" s="38">
         <f t="shared" si="5"/>
-        <v>397.5</v>
-      </c>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24">
+        <v>520.5</v>
+      </c>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38">
         <f t="shared" si="6"/>
-        <v>-397.5</v>
-      </c>
-      <c r="N40" s="64"/>
-      <c r="O40" s="65"/>
-    </row>
-    <row r="42" spans="1:17" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="36"/>
-      <c r="B42" s="57" t="s">
+        <v>-520.5</v>
+      </c>
+      <c r="N40" s="80"/>
+      <c r="O40" s="80"/>
+    </row>
+    <row r="41" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="24">
+        <v>7</v>
+      </c>
+      <c r="C41" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="38"/>
+      <c r="N41" s="64"/>
+      <c r="O41" s="65"/>
+    </row>
+    <row r="42" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:17" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="31"/>
+      <c r="B43" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="58"/>
-      <c r="D42" s="58"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="59"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="53" t="s">
+      <c r="C43" s="63"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="K42" s="53"/>
-      <c r="L42" s="53"/>
-      <c r="M42" s="53"/>
-      <c r="N42" s="53"/>
-      <c r="O42" s="53"/>
-      <c r="Q42" s="36"/>
-    </row>
-    <row r="43" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="56" t="s">
+      <c r="K43" s="47"/>
+      <c r="L43" s="47"/>
+      <c r="M43" s="47"/>
+      <c r="N43" s="47"/>
+      <c r="O43" s="47"/>
+      <c r="Q43" s="31"/>
+    </row>
+    <row r="44" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="60" t="s">
+      <c r="C44" s="68"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="G43" s="61"/>
-      <c r="H43" s="62"/>
-      <c r="J43" s="35" t="s">
+      <c r="G44" s="69"/>
+      <c r="H44" s="69"/>
+      <c r="J44" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="35" t="s">
+      <c r="K44" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="35" t="s">
+      <c r="L44" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M43" s="35" t="s">
+      <c r="M44" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="N43" s="35" t="s">
+      <c r="N44" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="O43" s="35" t="s">
+      <c r="O44" s="30" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B44" s="38"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="52"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="33"/>
-      <c r="L44" s="33"/>
-      <c r="M44" s="33"/>
-      <c r="N44" s="33"/>
-      <c r="O44" s="33"/>
-    </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B45" s="38"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="52"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="33"/>
-      <c r="N45" s="33"/>
-      <c r="O45" s="33"/>
+      <c r="B45" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="79"/>
+      <c r="J45" s="29">
+        <v>705</v>
+      </c>
+      <c r="K45" s="29">
+        <v>1205</v>
+      </c>
+      <c r="L45" s="29">
+        <v>880</v>
+      </c>
+      <c r="M45" s="29">
+        <v>1205</v>
+      </c>
+      <c r="N45" s="29"/>
+      <c r="O45" s="29"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B46" s="38"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="52"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="33"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
+      <c r="B46" s="33">
+        <v>1</v>
+      </c>
+      <c r="C46" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="37">
+        <v>3990</v>
+      </c>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
+      <c r="J46" s="29">
+        <v>52</v>
+      </c>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="29"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B47" s="38"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="52"/>
+      <c r="B47" s="33">
+        <v>2</v>
+      </c>
+      <c r="C47" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="37">
+        <v>150</v>
+      </c>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
-      <c r="M47" s="33"/>
+      <c r="M47" s="29"/>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B48" s="38"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="52"/>
+      <c r="B48" s="33">
+        <v>3</v>
+      </c>
+      <c r="C48" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" s="37">
+        <v>200</v>
+      </c>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
-      <c r="M48" s="33"/>
+      <c r="M48" s="29"/>
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B49" s="38"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="51"/>
-      <c r="H49" s="52"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="46"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
-      <c r="M49" s="33"/>
+      <c r="M49" s="29"/>
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B50" s="38"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="52"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
-      <c r="M50" s="33"/>
+      <c r="M50" s="29"/>
       <c r="N50" s="5"/>
       <c r="O50" s="5"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B51" s="38"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="52"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="46"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
-      <c r="M51" s="33"/>
+      <c r="M51" s="29"/>
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B52" s="38"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="52"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="46"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
-      <c r="M52" s="33"/>
+      <c r="M52" s="29"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B53" s="38"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="51"/>
-      <c r="H53" s="52"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="46"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
-      <c r="M53" s="33"/>
+      <c r="M53" s="29"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B54" s="38"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="51"/>
-      <c r="H54" s="52"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
-      <c r="M54" s="33"/>
+      <c r="M54" s="29"/>
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B55" s="38"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="51"/>
-      <c r="H55" s="52"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="46"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
-      <c r="M55" s="33"/>
+      <c r="M55" s="29"/>
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B56" s="38"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="51"/>
-      <c r="H56" s="52"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
-      <c r="M56" s="33"/>
+      <c r="M56" s="29"/>
       <c r="N56" s="5"/>
       <c r="O56" s="5"/>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B57" s="38"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="51"/>
-      <c r="H57" s="52"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
-      <c r="M57" s="33"/>
+      <c r="M57" s="29"/>
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B58" s="38"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="51"/>
-      <c r="H58" s="52"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="46"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
-      <c r="M58" s="33"/>
+      <c r="M58" s="29"/>
       <c r="N58" s="5"/>
       <c r="O58" s="5"/>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B59" s="38"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="51"/>
-      <c r="H59" s="52"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="46"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
-      <c r="M59" s="33"/>
+      <c r="M59" s="29"/>
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B60" s="38"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="51"/>
-      <c r="H60" s="52"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="46"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
-      <c r="M60" s="33"/>
+      <c r="M60" s="29"/>
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B61" s="38"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="51"/>
-      <c r="H61" s="52"/>
-      <c r="J61" s="33">
-        <f t="shared" ref="J61:O61" si="7">SUM(J44:J60)</f>
-        <v>0</v>
-      </c>
-      <c r="K61" s="33">
+      <c r="B61" s="33"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="46"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="29"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="5"/>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B62" s="33"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="46"/>
+      <c r="J62" s="29">
+        <f t="shared" ref="J62:O62" si="7">SUM(J45:J61)</f>
+        <v>757</v>
+      </c>
+      <c r="K62" s="29">
+        <f t="shared" si="7"/>
+        <v>1205</v>
+      </c>
+      <c r="L62" s="29">
+        <f t="shared" si="7"/>
+        <v>880</v>
+      </c>
+      <c r="M62" s="29">
+        <f t="shared" si="7"/>
+        <v>1205</v>
+      </c>
+      <c r="N62" s="29">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L61" s="33">
+      <c r="O62" s="29">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M61" s="33">
-        <f t="shared" si="7"/>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B63" s="33"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="46"/>
+      <c r="H63" s="46"/>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B64" s="33"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="46"/>
+      <c r="H64" s="46"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="45"/>
+      <c r="D65" s="37">
+        <f>SUM(D46:D64)</f>
+        <v>4340</v>
+      </c>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G65" s="46">
+        <f>SUM(G48:G64)</f>
         <v>0</v>
       </c>
-      <c r="N61" s="33">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O61" s="33">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B62" s="38"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="51"/>
-      <c r="H62" s="52"/>
-    </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B63" s="38"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="51"/>
-      <c r="H63" s="52"/>
-    </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B64" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="C64" s="55"/>
-      <c r="D64" s="33">
-        <f>SUM(D45:D63)</f>
-        <v>0</v>
-      </c>
-      <c r="E64" s="33"/>
-      <c r="F64" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G64" s="51">
-        <f>SUM(G47:G63)</f>
-        <v>0</v>
-      </c>
-      <c r="H64" s="52"/>
+      <c r="H65" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="80">
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="T2:U2"/>
+  <mergeCells count="82">
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D15"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="J43:O43"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="G29:H29"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="B32:O32"/>
     <mergeCell ref="G33:O33"/>
@@ -2343,54 +2505,22 @@
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="G23:H23"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D15"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="J42:O42"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="98" orientation="landscape" r:id="rId1"/>

--- a/Khata.xlsx
+++ b/Khata.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$32:$O$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$32:$O$41</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
   <si>
     <t>Sr</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>Aqsa Rasheed</t>
+  </si>
+  <si>
+    <t>milk</t>
   </si>
 </sst>
 </file>
@@ -534,113 +537,113 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -948,8 +951,8 @@
   </sheetPr>
   <dimension ref="A1:W65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,60 +976,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="G1" s="47" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="G1" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="N1" s="50" t="s">
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="N1" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="47" t="s">
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="47"/>
-      <c r="V1" s="48" t="s">
+      <c r="U1" s="58"/>
+      <c r="V1" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="48"/>
+      <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
       <c r="E2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="53" t="s">
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="54"/>
+      <c r="L2" s="78"/>
       <c r="N2" s="20" t="s">
         <v>3</v>
       </c>
@@ -1045,26 +1048,26 @@
       <c r="S2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="56">
+      <c r="T2" s="80">
         <f>(I20/4)</f>
         <v>812.5</v>
       </c>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49">
+      <c r="U2" s="73"/>
+      <c r="V2" s="73">
         <f>L20/4</f>
-        <v>367</v>
-      </c>
-      <c r="W2" s="49"/>
+        <v>792</v>
+      </c>
+      <c r="W2" s="73"/>
     </row>
     <row r="3" spans="1:23" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
         <v>1</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="8"/>
       <c r="G3" s="22" t="s">
         <v>6</v>
@@ -1105,11 +1108,11 @@
       <c r="A4" s="21">
         <v>2</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
       <c r="E4" s="8">
         <v>1000</v>
       </c>
@@ -1148,11 +1151,11 @@
       <c r="A5" s="21">
         <v>3</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
       <c r="E5" s="8">
         <v>1000</v>
       </c>
@@ -1183,11 +1186,11 @@
       <c r="A6" s="21">
         <v>4</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
       <c r="E6" s="8">
         <v>1000</v>
       </c>
@@ -1218,11 +1221,11 @@
       <c r="A7" s="21">
         <v>5</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
       <c r="E7" s="6"/>
       <c r="G7" s="21">
         <v>4</v>
@@ -1251,11 +1254,11 @@
       <c r="A8" s="21">
         <v>6</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
       <c r="E8" s="6">
         <v>1000</v>
       </c>
@@ -1279,12 +1282,12 @@
       <c r="S8" s="29"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
       <c r="E9" s="6">
         <f>SUM(E3:E8)</f>
         <v>4000</v>
@@ -1318,13 +1321,17 @@
       <c r="G10" s="21">
         <v>7</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="H10" s="8"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
+      <c r="J10" s="23">
+        <v>45638</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="6">
+        <v>1700</v>
+      </c>
       <c r="N10" s="29"/>
       <c r="O10" s="29"/>
       <c r="P10" s="29"/>
@@ -1337,12 +1344,8 @@
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="13"/>
-      <c r="G11" s="21">
-        <v>8</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="G11" s="21"/>
+      <c r="H11" s="8"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -1355,18 +1358,14 @@
       <c r="S11" s="29"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="G12" s="21">
-        <v>9</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="8"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
@@ -1379,13 +1378,13 @@
       <c r="S12" s="29"/>
     </row>
     <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="70">
+      <c r="A13" s="48">
         <f>(E9+N20+O20+P20+Q20+R20+S20)-(1567+L20+I20+D65)</f>
-        <v>130</v>
-      </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="72"/>
+        <v>-1570</v>
+      </c>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="50"/>
       <c r="G13" s="21"/>
       <c r="H13" s="8"/>
       <c r="I13" s="6"/>
@@ -1400,10 +1399,10 @@
       <c r="S13" s="29"/>
     </row>
     <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="73"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="75"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="53"/>
       <c r="G14" s="21"/>
       <c r="H14" s="8"/>
       <c r="I14" s="6"/>
@@ -1418,10 +1417,10 @@
       <c r="S14" s="29"/>
     </row>
     <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="76"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="78"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="56"/>
       <c r="G15" s="21"/>
       <c r="H15" s="8"/>
       <c r="I15" s="6"/>
@@ -1512,10 +1511,10 @@
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="13"/>
-      <c r="G20" s="61" t="s">
+      <c r="G20" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="62"/>
+      <c r="H20" s="72"/>
       <c r="I20" s="6">
         <f>SUM(I4:I19)</f>
         <v>3250</v>
@@ -1526,7 +1525,7 @@
       </c>
       <c r="L20" s="6">
         <f>SUM(L4:L19)</f>
-        <v>1468</v>
+        <v>3168</v>
       </c>
       <c r="N20" s="16">
         <f t="shared" ref="N20:S20" si="0">SUM(N3:N19)</f>
@@ -1563,165 +1562,165 @@
       <c r="B23" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
       <c r="F23" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="63" t="s">
+      <c r="G23" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="63"/>
+      <c r="H23" s="60"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B24" s="21">
         <v>1</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
       <c r="F24" s="14"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B25" s="21">
         <v>2</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
       <c r="F25" s="14">
         <f>E4+O20-(T2+V2+K62)</f>
-        <v>320.5</v>
-      </c>
-      <c r="G25" s="46" t="str">
+        <v>-104.5</v>
+      </c>
+      <c r="G25" s="62" t="str">
         <f t="shared" ref="G25:G29" si="1">IF(F25&lt;0,"please pay","good")</f>
-        <v>good</v>
-      </c>
-      <c r="H25" s="46"/>
+        <v>please pay</v>
+      </c>
+      <c r="H25" s="62"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B26" s="21">
         <v>3</v>
       </c>
-      <c r="C26" s="45" t="s">
+      <c r="C26" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
       <c r="F26" s="14">
         <f>E5+P20-(T2+V2+L62)</f>
-        <v>320.5</v>
-      </c>
-      <c r="G26" s="46" t="str">
+        <v>-104.5</v>
+      </c>
+      <c r="G26" s="62" t="str">
         <f t="shared" si="1"/>
-        <v>good</v>
-      </c>
-      <c r="H26" s="46"/>
+        <v>please pay</v>
+      </c>
+      <c r="H26" s="62"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B27" s="21">
         <v>4</v>
       </c>
-      <c r="C27" s="45" t="s">
+      <c r="C27" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
       <c r="F27" s="14">
         <f>E6+Q20-(T2+V2+M62)</f>
-        <v>730.5</v>
-      </c>
-      <c r="G27" s="46" t="str">
+        <v>305.5</v>
+      </c>
+      <c r="G27" s="62" t="str">
         <f t="shared" si="1"/>
         <v>good</v>
       </c>
-      <c r="H27" s="46"/>
+      <c r="H27" s="62"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B28" s="21">
         <v>5</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
       <c r="F28" s="15"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B29" s="21">
         <v>6</v>
       </c>
-      <c r="C29" s="45" t="s">
+      <c r="C29" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
       <c r="F29" s="15">
         <f>E8+S20-(T2+V2+O62)</f>
-        <v>520.5</v>
-      </c>
-      <c r="G29" s="57" t="str">
+        <v>95.5</v>
+      </c>
+      <c r="G29" s="63" t="str">
         <f t="shared" si="1"/>
         <v>good</v>
       </c>
-      <c r="H29" s="58"/>
+      <c r="H29" s="64"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="46"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
       <c r="F30" s="15"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="58"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="64"/>
     </row>
     <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="47"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="58"/>
+      <c r="O32" s="58"/>
     </row>
     <row r="33" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="66" t="s">
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="46"/>
-      <c r="O33" s="46"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="62"/>
     </row>
     <row r="34" spans="1:17" s="26" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="25" t="s">
@@ -1739,10 +1738,10 @@
       <c r="F34" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="G34" s="67" t="s">
+      <c r="G34" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="H34" s="67"/>
+      <c r="H34" s="68"/>
       <c r="I34" s="40" t="s">
         <v>20</v>
       </c>
@@ -1758,10 +1757,10 @@
       <c r="M34" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="N34" s="59" t="s">
+      <c r="N34" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="O34" s="59"/>
+      <c r="O34" s="69"/>
     </row>
     <row r="35" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="24">
@@ -1778,11 +1777,11 @@
         <f>D35+E35</f>
         <v>855</v>
       </c>
-      <c r="G35" s="46">
+      <c r="G35" s="62">
         <f>J62</f>
         <v>757</v>
       </c>
-      <c r="H35" s="46"/>
+      <c r="H35" s="62"/>
       <c r="I35" s="38"/>
       <c r="J35" s="38">
         <f>G35</f>
@@ -1797,8 +1796,8 @@
         <f>L35-K35</f>
         <v>-98</v>
       </c>
-      <c r="N35" s="80"/>
-      <c r="O35" s="80"/>
+      <c r="N35" s="65"/>
+      <c r="O35" s="65"/>
     </row>
     <row r="36" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="24">
@@ -1819,30 +1818,32 @@
         <f t="shared" ref="F36:F40" si="3">SUM(D36:E36)</f>
         <v>2705</v>
       </c>
-      <c r="G36" s="46">
+      <c r="G36" s="62">
         <f>T2+K62</f>
         <v>2017.5</v>
       </c>
-      <c r="H36" s="46"/>
+      <c r="H36" s="62"/>
       <c r="I36" s="38">
         <f>V2</f>
-        <v>367</v>
+        <v>792</v>
       </c>
       <c r="J36" s="38">
         <f t="shared" ref="J36:J40" si="4">SUM(G36:I36)</f>
-        <v>2384.5</v>
+        <v>2809.5</v>
       </c>
       <c r="K36" s="38">
         <f t="shared" ref="K36:K40" si="5">F36-J36</f>
-        <v>320.5</v>
-      </c>
-      <c r="L36" s="38"/>
+        <v>-104.5</v>
+      </c>
+      <c r="L36" s="38">
+        <v>1000</v>
+      </c>
       <c r="M36" s="38">
         <f t="shared" ref="M36:M40" si="6">L36-K36</f>
-        <v>-320.5</v>
-      </c>
-      <c r="N36" s="80"/>
-      <c r="O36" s="80"/>
+        <v>1104.5</v>
+      </c>
+      <c r="N36" s="65"/>
+      <c r="O36" s="65"/>
     </row>
     <row r="37" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="24">
@@ -1863,30 +1864,32 @@
         <f t="shared" si="3"/>
         <v>2380</v>
       </c>
-      <c r="G37" s="46">
+      <c r="G37" s="62">
         <f>T2+L62</f>
         <v>1692.5</v>
       </c>
-      <c r="H37" s="46"/>
+      <c r="H37" s="62"/>
       <c r="I37" s="38">
         <f>V2</f>
-        <v>367</v>
+        <v>792</v>
       </c>
       <c r="J37" s="38">
         <f t="shared" si="4"/>
-        <v>2059.5</v>
+        <v>2484.5</v>
       </c>
       <c r="K37" s="38">
         <f t="shared" si="5"/>
-        <v>320.5</v>
-      </c>
-      <c r="L37" s="38"/>
+        <v>-104.5</v>
+      </c>
+      <c r="L37" s="38">
+        <v>1880</v>
+      </c>
       <c r="M37" s="38">
         <f t="shared" si="6"/>
-        <v>-320.5</v>
-      </c>
-      <c r="N37" s="80"/>
-      <c r="O37" s="80"/>
+        <v>1984.5</v>
+      </c>
+      <c r="N37" s="65"/>
+      <c r="O37" s="65"/>
     </row>
     <row r="38" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="24">
@@ -1907,30 +1910,32 @@
         <f t="shared" si="3"/>
         <v>3115</v>
       </c>
-      <c r="G38" s="46">
+      <c r="G38" s="62">
         <f>T2+M62</f>
         <v>2017.5</v>
       </c>
-      <c r="H38" s="46"/>
+      <c r="H38" s="62"/>
       <c r="I38" s="38">
         <f>V2</f>
-        <v>367</v>
+        <v>792</v>
       </c>
       <c r="J38" s="38">
         <f t="shared" si="4"/>
-        <v>2384.5</v>
+        <v>2809.5</v>
       </c>
       <c r="K38" s="38">
         <f t="shared" si="5"/>
-        <v>730.5</v>
-      </c>
-      <c r="L38" s="38"/>
+        <v>305.5</v>
+      </c>
+      <c r="L38" s="38">
+        <v>1000</v>
+      </c>
       <c r="M38" s="38">
         <f t="shared" si="6"/>
-        <v>-730.5</v>
-      </c>
-      <c r="N38" s="80"/>
-      <c r="O38" s="80"/>
+        <v>694.5</v>
+      </c>
+      <c r="N38" s="65"/>
+      <c r="O38" s="65"/>
     </row>
     <row r="39" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="24">
@@ -1942,8 +1947,8 @@
       <c r="D39" s="39"/>
       <c r="E39" s="39"/>
       <c r="F39" s="38"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="62"/>
       <c r="I39" s="38"/>
       <c r="J39" s="38"/>
       <c r="K39" s="38"/>
@@ -1951,8 +1956,8 @@
       <c r="M39" s="38">
         <v>1567</v>
       </c>
-      <c r="N39" s="80"/>
-      <c r="O39" s="80"/>
+      <c r="N39" s="65"/>
+      <c r="O39" s="65"/>
     </row>
     <row r="40" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="24">
@@ -1973,30 +1978,32 @@
         <f t="shared" si="3"/>
         <v>1700</v>
       </c>
-      <c r="G40" s="46">
+      <c r="G40" s="62">
         <f>T2</f>
         <v>812.5</v>
       </c>
-      <c r="H40" s="46"/>
+      <c r="H40" s="62"/>
       <c r="I40" s="38">
         <f>V2</f>
-        <v>367</v>
+        <v>792</v>
       </c>
       <c r="J40" s="38">
         <f t="shared" si="4"/>
-        <v>1179.5</v>
+        <v>1604.5</v>
       </c>
       <c r="K40" s="38">
         <f t="shared" si="5"/>
-        <v>520.5</v>
-      </c>
-      <c r="L40" s="38"/>
+        <v>95.5</v>
+      </c>
+      <c r="L40" s="38">
+        <v>1000</v>
+      </c>
       <c r="M40" s="38">
         <f t="shared" si="6"/>
-        <v>-520.5</v>
-      </c>
-      <c r="N40" s="80"/>
-      <c r="O40" s="80"/>
+        <v>904.5</v>
+      </c>
+      <c r="N40" s="65"/>
+      <c r="O40" s="65"/>
     </row>
     <row r="41" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="24">
@@ -2008,51 +2015,56 @@
       <c r="D41" s="39"/>
       <c r="E41" s="39"/>
       <c r="F41" s="38"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="58"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="64"/>
       <c r="I41" s="38"/>
       <c r="J41" s="38"/>
       <c r="K41" s="38"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="38"/>
-      <c r="N41" s="64"/>
-      <c r="O41" s="65"/>
+      <c r="L41" s="38">
+        <v>500</v>
+      </c>
+      <c r="M41" s="38">
+        <f>L41-K41</f>
+        <v>500</v>
+      </c>
+      <c r="N41" s="45"/>
+      <c r="O41" s="46"/>
     </row>
     <row r="42" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:17" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="31"/>
-      <c r="B43" s="63" t="s">
+      <c r="B43" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="63"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="63"/>
-      <c r="H43" s="63"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
       <c r="I43" s="31"/>
-      <c r="J43" s="47" t="s">
+      <c r="J43" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="K43" s="47"/>
-      <c r="L43" s="47"/>
-      <c r="M43" s="47"/>
-      <c r="N43" s="47"/>
-      <c r="O43" s="47"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="58"/>
+      <c r="M43" s="58"/>
+      <c r="N43" s="58"/>
+      <c r="O43" s="58"/>
       <c r="Q43" s="31"/>
     </row>
     <row r="44" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="68" t="s">
+      <c r="B44" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="C44" s="68"/>
-      <c r="D44" s="68"/>
-      <c r="E44" s="68"/>
-      <c r="F44" s="69" t="s">
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="G44" s="69"/>
-      <c r="H44" s="69"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="61"/>
       <c r="J44" s="30" t="s">
         <v>3</v>
       </c>
@@ -2088,10 +2100,10 @@
       <c r="F45" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="G45" s="79" t="s">
+      <c r="G45" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="79"/>
+      <c r="H45" s="57"/>
       <c r="J45" s="29">
         <v>705</v>
       </c>
@@ -2119,8 +2131,8 @@
       </c>
       <c r="E46" s="37"/>
       <c r="F46" s="37"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="46"/>
+      <c r="G46" s="62"/>
+      <c r="H46" s="62"/>
       <c r="J46" s="29">
         <v>52</v>
       </c>
@@ -2142,8 +2154,8 @@
       </c>
       <c r="E47" s="37"/>
       <c r="F47" s="37"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="46"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="62"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
@@ -2163,8 +2175,8 @@
       </c>
       <c r="E48" s="37"/>
       <c r="F48" s="37"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="46"/>
+      <c r="G48" s="62"/>
+      <c r="H48" s="62"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
@@ -2178,8 +2190,8 @@
       <c r="D49" s="37"/>
       <c r="E49" s="37"/>
       <c r="F49" s="37"/>
-      <c r="G49" s="46"/>
-      <c r="H49" s="46"/>
+      <c r="G49" s="62"/>
+      <c r="H49" s="62"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
@@ -2193,8 +2205,8 @@
       <c r="D50" s="37"/>
       <c r="E50" s="37"/>
       <c r="F50" s="37"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="46"/>
+      <c r="G50" s="62"/>
+      <c r="H50" s="62"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
@@ -2208,8 +2220,8 @@
       <c r="D51" s="37"/>
       <c r="E51" s="37"/>
       <c r="F51" s="37"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="46"/>
+      <c r="G51" s="62"/>
+      <c r="H51" s="62"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
@@ -2223,8 +2235,8 @@
       <c r="D52" s="37"/>
       <c r="E52" s="37"/>
       <c r="F52" s="37"/>
-      <c r="G52" s="46"/>
-      <c r="H52" s="46"/>
+      <c r="G52" s="62"/>
+      <c r="H52" s="62"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
@@ -2238,8 +2250,8 @@
       <c r="D53" s="37"/>
       <c r="E53" s="37"/>
       <c r="F53" s="37"/>
-      <c r="G53" s="46"/>
-      <c r="H53" s="46"/>
+      <c r="G53" s="62"/>
+      <c r="H53" s="62"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
@@ -2253,8 +2265,8 @@
       <c r="D54" s="37"/>
       <c r="E54" s="37"/>
       <c r="F54" s="37"/>
-      <c r="G54" s="46"/>
-      <c r="H54" s="46"/>
+      <c r="G54" s="62"/>
+      <c r="H54" s="62"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
@@ -2268,8 +2280,8 @@
       <c r="D55" s="37"/>
       <c r="E55" s="37"/>
       <c r="F55" s="37"/>
-      <c r="G55" s="46"/>
-      <c r="H55" s="46"/>
+      <c r="G55" s="62"/>
+      <c r="H55" s="62"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
@@ -2283,8 +2295,8 @@
       <c r="D56" s="37"/>
       <c r="E56" s="37"/>
       <c r="F56" s="37"/>
-      <c r="G56" s="46"/>
-      <c r="H56" s="46"/>
+      <c r="G56" s="62"/>
+      <c r="H56" s="62"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
@@ -2298,8 +2310,8 @@
       <c r="D57" s="37"/>
       <c r="E57" s="37"/>
       <c r="F57" s="37"/>
-      <c r="G57" s="46"/>
-      <c r="H57" s="46"/>
+      <c r="G57" s="62"/>
+      <c r="H57" s="62"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
@@ -2313,8 +2325,8 @@
       <c r="D58" s="37"/>
       <c r="E58" s="37"/>
       <c r="F58" s="37"/>
-      <c r="G58" s="46"/>
-      <c r="H58" s="46"/>
+      <c r="G58" s="62"/>
+      <c r="H58" s="62"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
@@ -2328,8 +2340,8 @@
       <c r="D59" s="37"/>
       <c r="E59" s="37"/>
       <c r="F59" s="37"/>
-      <c r="G59" s="46"/>
-      <c r="H59" s="46"/>
+      <c r="G59" s="62"/>
+      <c r="H59" s="62"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
@@ -2343,8 +2355,8 @@
       <c r="D60" s="37"/>
       <c r="E60" s="37"/>
       <c r="F60" s="37"/>
-      <c r="G60" s="46"/>
-      <c r="H60" s="46"/>
+      <c r="G60" s="62"/>
+      <c r="H60" s="62"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
@@ -2358,8 +2370,8 @@
       <c r="D61" s="37"/>
       <c r="E61" s="37"/>
       <c r="F61" s="37"/>
-      <c r="G61" s="46"/>
-      <c r="H61" s="46"/>
+      <c r="G61" s="62"/>
+      <c r="H61" s="62"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
@@ -2373,8 +2385,8 @@
       <c r="D62" s="37"/>
       <c r="E62" s="37"/>
       <c r="F62" s="37"/>
-      <c r="G62" s="46"/>
-      <c r="H62" s="46"/>
+      <c r="G62" s="62"/>
+      <c r="H62" s="62"/>
       <c r="J62" s="29">
         <f t="shared" ref="J62:O62" si="7">SUM(J45:J61)</f>
         <v>757</v>
@@ -2406,8 +2418,8 @@
       <c r="D63" s="37"/>
       <c r="E63" s="37"/>
       <c r="F63" s="37"/>
-      <c r="G63" s="46"/>
-      <c r="H63" s="46"/>
+      <c r="G63" s="62"/>
+      <c r="H63" s="62"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B64" s="33"/>
@@ -2415,14 +2427,14 @@
       <c r="D64" s="37"/>
       <c r="E64" s="37"/>
       <c r="F64" s="37"/>
-      <c r="G64" s="46"/>
-      <c r="H64" s="46"/>
+      <c r="G64" s="62"/>
+      <c r="H64" s="62"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="45" t="s">
+      <c r="B65" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C65" s="45"/>
+      <c r="C65" s="66"/>
       <c r="D65" s="37">
         <f>SUM(D46:D64)</f>
         <v>4340</v>
@@ -2431,51 +2443,43 @@
       <c r="F65" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="G65" s="46">
+      <c r="G65" s="62">
         <f>SUM(G48:G64)</f>
         <v>0</v>
       </c>
-      <c r="H65" s="46"/>
+      <c r="H65" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D15"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="J43:O43"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="N40:O40"/>
     <mergeCell ref="N35:O35"/>
@@ -2492,35 +2496,43 @@
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="B32:O32"/>
     <mergeCell ref="G33:O33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D15"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="J43:O43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="98" orientation="landscape" r:id="rId1"/>

--- a/Khata.xlsx
+++ b/Khata.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="45">
   <si>
     <t>Sr</t>
   </si>
@@ -135,46 +135,25 @@
     <t>Extra Expance of food</t>
   </si>
   <si>
-    <t>Sugar,Pati</t>
-  </si>
-  <si>
     <t>Mess Remaining</t>
   </si>
   <si>
-    <t>Expence NOV 2024</t>
-  </si>
-  <si>
-    <t>Bill Summary for the month of NOV-2024</t>
-  </si>
-  <si>
     <t>Total Amount To Be Paid</t>
   </si>
   <si>
-    <t>julebi</t>
-  </si>
-  <si>
-    <t>Gas</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>pepsi</t>
-  </si>
-  <si>
-    <t>samosa</t>
-  </si>
-  <si>
     <t>Aqsa Rasheed</t>
   </si>
   <si>
-    <t>milk</t>
+    <t>Expence Dec 2024</t>
+  </si>
+  <si>
+    <t>sugar,lipton</t>
+  </si>
+  <si>
+    <t>Milk</t>
+  </si>
+  <si>
+    <t>Bill Summary for the month of DEC-2024</t>
   </si>
 </sst>
 </file>
@@ -504,37 +483,100 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -543,9 +585,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -576,74 +615,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -951,8 +930,8 @@
   </sheetPr>
   <dimension ref="A1:W65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:D15"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T41" sqref="T41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,33 +955,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="G1" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="N1" s="74" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="G1" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="N1" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="58" t="s">
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="58"/>
+      <c r="U1" s="45"/>
       <c r="V1" s="47" t="s">
         <v>20</v>
       </c>
@@ -1012,24 +991,24 @@
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
       <c r="E2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="77" t="s">
+      <c r="G2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="77" t="s">
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="78"/>
+      <c r="L2" s="53"/>
       <c r="N2" s="20" t="s">
         <v>3</v>
       </c>
@@ -1048,26 +1027,26 @@
       <c r="S2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="80">
+      <c r="T2" s="55">
         <f>(I20/4)</f>
-        <v>812.5</v>
-      </c>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73">
-        <f>L20/4</f>
-        <v>792</v>
-      </c>
-      <c r="W2" s="73"/>
+        <v>0</v>
+      </c>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48">
+        <f>L20/5</f>
+        <v>436</v>
+      </c>
+      <c r="W2" s="48"/>
     </row>
     <row r="3" spans="1:23" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
         <v>1</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="8"/>
       <c r="G3" s="22" t="s">
         <v>6</v>
@@ -1087,77 +1066,57 @@
       <c r="L3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="29">
-        <v>705</v>
-      </c>
-      <c r="O3" s="29">
-        <v>500</v>
-      </c>
-      <c r="P3" s="29">
-        <v>500</v>
-      </c>
-      <c r="Q3" s="29">
-        <v>500</v>
-      </c>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
       <c r="R3" s="29"/>
-      <c r="S3" s="29">
-        <v>500</v>
-      </c>
+      <c r="S3" s="29"/>
     </row>
     <row r="4" spans="1:23" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21">
         <v>2</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="8">
-        <v>1000</v>
+        <v>1104</v>
       </c>
       <c r="G4" s="21">
         <v>1</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="9">
-        <v>45600</v>
-      </c>
-      <c r="K4" s="34" t="s">
-        <v>38</v>
+      <c r="J4" s="80">
+        <v>45628</v>
+      </c>
+      <c r="K4" s="80" t="s">
+        <v>42</v>
       </c>
       <c r="L4" s="6">
-        <v>560</v>
-      </c>
-      <c r="N4" s="29">
-        <v>150</v>
-      </c>
-      <c r="O4" s="29">
-        <v>1205</v>
-      </c>
-      <c r="P4" s="29">
-        <v>880</v>
-      </c>
-      <c r="Q4" s="29">
-        <v>100</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
       <c r="R4" s="29"/>
-      <c r="S4" s="29">
-        <v>200</v>
-      </c>
+      <c r="S4" s="29"/>
     </row>
     <row r="5" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
         <v>3</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="8">
-        <v>1000</v>
+        <v>1104</v>
       </c>
       <c r="G5" s="21">
         <v>2</v>
@@ -1165,20 +1124,18 @@
       <c r="H5" s="28"/>
       <c r="I5" s="27"/>
       <c r="J5" s="9">
-        <v>45604</v>
-      </c>
-      <c r="K5" s="27" t="s">
+        <v>45628</v>
+      </c>
+      <c r="K5" s="23" t="s">
         <v>43</v>
       </c>
       <c r="L5" s="27">
-        <v>300</v>
+        <v>1700</v>
       </c>
       <c r="N5" s="29"/>
       <c r="O5" s="29"/>
       <c r="P5" s="29"/>
-      <c r="Q5" s="29">
-        <v>260</v>
-      </c>
+      <c r="Q5" s="29"/>
       <c r="R5" s="29"/>
       <c r="S5" s="29"/>
     </row>
@@ -1186,34 +1143,26 @@
       <c r="A6" s="21">
         <v>4</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
       <c r="E6" s="8">
-        <v>1000</v>
+        <v>695</v>
       </c>
       <c r="G6" s="21">
         <v>3</v>
       </c>
       <c r="H6" s="28"/>
       <c r="I6" s="27"/>
-      <c r="J6" s="35">
-        <v>45606</v>
-      </c>
-      <c r="K6" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" s="27">
-        <v>300</v>
-      </c>
+      <c r="J6" s="34"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
       <c r="N6" s="29"/>
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
-      <c r="Q6" s="29">
-        <v>50</v>
-      </c>
+      <c r="Q6" s="29"/>
       <c r="R6" s="29"/>
       <c r="S6" s="29"/>
     </row>
@@ -1221,32 +1170,26 @@
       <c r="A7" s="21">
         <v>5</v>
       </c>
-      <c r="B7" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="6"/>
+      <c r="B7" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="6">
+        <v>500</v>
+      </c>
       <c r="G7" s="21">
         <v>4</v>
       </c>
-      <c r="H7" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="27">
-        <v>3250</v>
-      </c>
-      <c r="J7" s="23">
-        <v>45608</v>
-      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="23"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="N7" s="29"/>
       <c r="O7" s="29"/>
       <c r="P7" s="29"/>
-      <c r="Q7" s="29">
-        <v>1205</v>
-      </c>
+      <c r="Q7" s="29"/>
       <c r="R7" s="29"/>
       <c r="S7" s="29"/>
     </row>
@@ -1254,13 +1197,13 @@
       <c r="A8" s="21">
         <v>6</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="6">
-        <v>1000</v>
+        <v>905</v>
       </c>
       <c r="G8" s="21">
         <v>5</v>
@@ -1268,12 +1211,8 @@
       <c r="H8" s="28"/>
       <c r="I8" s="27"/>
       <c r="J8" s="23"/>
-      <c r="K8" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8" s="27">
-        <v>100</v>
-      </c>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
       <c r="N8" s="29"/>
       <c r="O8" s="29"/>
       <c r="P8" s="29"/>
@@ -1282,30 +1221,24 @@
       <c r="S8" s="29"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
       <c r="E9" s="6">
         <f>SUM(E3:E8)</f>
-        <v>4000</v>
+        <v>4308</v>
       </c>
       <c r="G9" s="21">
         <v>6</v>
       </c>
       <c r="H9" s="28"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="23">
-        <v>45622</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="L9" s="27">
-        <v>208</v>
-      </c>
+      <c r="J9" s="23"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="27"/>
       <c r="N9" s="29"/>
       <c r="O9" s="29"/>
       <c r="P9" s="29"/>
@@ -1323,15 +1256,9 @@
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="23">
-        <v>45638</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="L10" s="6">
-        <v>1700</v>
-      </c>
+      <c r="J10" s="23"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
       <c r="N10" s="29"/>
       <c r="O10" s="29"/>
       <c r="P10" s="29"/>
@@ -1359,7 +1286,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="47"/>
       <c r="C12" s="47"/>
@@ -1378,13 +1305,13 @@
       <c r="S12" s="29"/>
     </row>
     <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="48">
+      <c r="A13" s="68">
         <f>(E9+N20+O20+P20+Q20+R20+S20)-(1567+L20+I20+D65)</f>
-        <v>-1570</v>
-      </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="50"/>
+        <v>561</v>
+      </c>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="70"/>
       <c r="G13" s="21"/>
       <c r="H13" s="8"/>
       <c r="I13" s="6"/>
@@ -1399,10 +1326,10 @@
       <c r="S13" s="29"/>
     </row>
     <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="53"/>
+      <c r="A14" s="71"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="73"/>
       <c r="G14" s="21"/>
       <c r="H14" s="8"/>
       <c r="I14" s="6"/>
@@ -1417,10 +1344,10 @@
       <c r="S14" s="29"/>
     </row>
     <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="56"/>
+      <c r="A15" s="74"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="76"/>
       <c r="G15" s="21"/>
       <c r="H15" s="8"/>
       <c r="I15" s="6"/>
@@ -1511,13 +1438,13 @@
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="13"/>
-      <c r="G20" s="71" t="s">
+      <c r="G20" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="72"/>
+      <c r="H20" s="59"/>
       <c r="I20" s="6">
         <f>SUM(I4:I19)</f>
-        <v>3250</v>
+        <v>0</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6" t="s">
@@ -1525,23 +1452,23 @@
       </c>
       <c r="L20" s="6">
         <f>SUM(L4:L19)</f>
-        <v>3168</v>
+        <v>2180</v>
       </c>
       <c r="N20" s="16">
         <f t="shared" ref="N20:S20" si="0">SUM(N3:N19)</f>
-        <v>855</v>
+        <v>0</v>
       </c>
       <c r="O20" s="16">
         <f t="shared" si="0"/>
-        <v>1705</v>
+        <v>0</v>
       </c>
       <c r="P20" s="16">
         <f t="shared" si="0"/>
-        <v>1380</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="16">
         <f t="shared" si="0"/>
-        <v>2115</v>
+        <v>0</v>
       </c>
       <c r="R20" s="16">
         <f t="shared" si="0"/>
@@ -1549,7 +1476,7 @@
       </c>
       <c r="S20" s="16">
         <f t="shared" si="0"/>
-        <v>700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -1562,11 +1489,11 @@
       <c r="B23" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
       <c r="F23" s="18" t="s">
         <v>2</v>
       </c>
@@ -1579,148 +1506,148 @@
       <c r="B24" s="21">
         <v>1</v>
       </c>
-      <c r="C24" s="66" t="s">
+      <c r="C24" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
       <c r="F24" s="14"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B25" s="21">
         <v>2</v>
       </c>
-      <c r="C25" s="66" t="s">
+      <c r="C25" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
       <c r="F25" s="14">
         <f>E4+O20-(T2+V2+K62)</f>
-        <v>-104.5</v>
-      </c>
-      <c r="G25" s="62" t="str">
+        <v>668</v>
+      </c>
+      <c r="G25" s="44" t="str">
         <f t="shared" ref="G25:G29" si="1">IF(F25&lt;0,"please pay","good")</f>
-        <v>please pay</v>
-      </c>
-      <c r="H25" s="62"/>
+        <v>good</v>
+      </c>
+      <c r="H25" s="44"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B26" s="21">
         <v>3</v>
       </c>
-      <c r="C26" s="66" t="s">
+      <c r="C26" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
       <c r="F26" s="14">
         <f>E5+P20-(T2+V2+L62)</f>
-        <v>-104.5</v>
-      </c>
-      <c r="G26" s="62" t="str">
+        <v>668</v>
+      </c>
+      <c r="G26" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>please pay</v>
-      </c>
-      <c r="H26" s="62"/>
+        <v>good</v>
+      </c>
+      <c r="H26" s="44"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B27" s="21">
         <v>4</v>
       </c>
-      <c r="C27" s="66" t="s">
+      <c r="C27" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
       <c r="F27" s="14">
         <f>E6+Q20-(T2+V2+M62)</f>
-        <v>305.5</v>
-      </c>
-      <c r="G27" s="62" t="str">
+        <v>259</v>
+      </c>
+      <c r="G27" s="44" t="str">
         <f t="shared" si="1"/>
         <v>good</v>
       </c>
-      <c r="H27" s="62"/>
+      <c r="H27" s="44"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B28" s="21">
         <v>5</v>
       </c>
-      <c r="C28" s="66" t="s">
+      <c r="C28" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
       <c r="F28" s="15"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B29" s="21">
         <v>6</v>
       </c>
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
       <c r="F29" s="15">
         <f>E8+S20-(T2+V2+O62)</f>
-        <v>95.5</v>
-      </c>
-      <c r="G29" s="63" t="str">
+        <v>469</v>
+      </c>
+      <c r="G29" s="64" t="str">
         <f t="shared" si="1"/>
         <v>good</v>
       </c>
-      <c r="H29" s="64"/>
+      <c r="H29" s="65"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
       <c r="F30" s="15"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="65"/>
     </row>
     <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="58"/>
-      <c r="O32" s="58"/>
+      <c r="B32" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
     </row>
     <row r="33" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="67" t="s">
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="62"/>
-      <c r="O33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="44"/>
     </row>
     <row r="34" spans="1:17" s="26" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="25" t="s">
@@ -1729,20 +1656,20 @@
       <c r="C34" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="41" t="s">
+      <c r="D34" s="40" t="s">
         <v>26</v>
       </c>
       <c r="E34" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F34" s="40" t="s">
+      <c r="F34" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="G34" s="68" t="s">
+      <c r="G34" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="H34" s="68"/>
-      <c r="I34" s="40" t="s">
+      <c r="H34" s="63"/>
+      <c r="I34" s="39" t="s">
         <v>20</v>
       </c>
       <c r="J34" s="25" t="s">
@@ -1755,280 +1682,268 @@
         <v>29</v>
       </c>
       <c r="M34" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="N34" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="N34" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="O34" s="69"/>
+      <c r="O34" s="56"/>
     </row>
     <row r="35" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="24">
         <v>1</v>
       </c>
-      <c r="C35" s="39" t="s">
+      <c r="C35" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39">
-        <v>855</v>
-      </c>
-      <c r="F35" s="38">
-        <f>D35+E35</f>
-        <v>855</v>
-      </c>
-      <c r="G35" s="62">
-        <f>J62</f>
-        <v>757</v>
-      </c>
-      <c r="H35" s="62"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="38">
-        <f>G35</f>
-        <v>757</v>
-      </c>
-      <c r="K35" s="38">
-        <f>F35-J35</f>
-        <v>98</v>
-      </c>
-      <c r="L35" s="38"/>
-      <c r="M35" s="38">
-        <f>L35-K35</f>
-        <v>-98</v>
-      </c>
-      <c r="N35" s="65"/>
-      <c r="O35" s="65"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="61"/>
+      <c r="O35" s="61"/>
     </row>
     <row r="36" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="24">
         <v>2</v>
       </c>
-      <c r="C36" s="39" t="s">
+      <c r="C36" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="39">
+      <c r="D36" s="38">
         <f t="shared" ref="D36:D40" si="2">E4</f>
-        <v>1000</v>
-      </c>
-      <c r="E36" s="39">
+        <v>1104</v>
+      </c>
+      <c r="E36" s="38">
         <f>O20</f>
-        <v>1705</v>
-      </c>
-      <c r="F36" s="38">
+        <v>0</v>
+      </c>
+      <c r="F36" s="37">
         <f t="shared" ref="F36:F40" si="3">SUM(D36:E36)</f>
-        <v>2705</v>
-      </c>
-      <c r="G36" s="62">
+        <v>1104</v>
+      </c>
+      <c r="G36" s="44">
         <f>T2+K62</f>
-        <v>2017.5</v>
-      </c>
-      <c r="H36" s="62"/>
-      <c r="I36" s="38">
+        <v>0</v>
+      </c>
+      <c r="H36" s="44"/>
+      <c r="I36" s="37">
         <f>V2</f>
-        <v>792</v>
-      </c>
-      <c r="J36" s="38">
+        <v>436</v>
+      </c>
+      <c r="J36" s="37">
         <f t="shared" ref="J36:J40" si="4">SUM(G36:I36)</f>
-        <v>2809.5</v>
-      </c>
-      <c r="K36" s="38">
-        <f t="shared" ref="K36:K40" si="5">F36-J36</f>
-        <v>-104.5</v>
-      </c>
-      <c r="L36" s="38">
-        <v>1000</v>
-      </c>
-      <c r="M36" s="38">
+        <v>436</v>
+      </c>
+      <c r="K36" s="37">
+        <f t="shared" ref="K36:K41" si="5">F36-J36</f>
+        <v>668</v>
+      </c>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37">
         <f t="shared" ref="M36:M40" si="6">L36-K36</f>
-        <v>1104.5</v>
-      </c>
-      <c r="N36" s="65"/>
-      <c r="O36" s="65"/>
+        <v>-668</v>
+      </c>
+      <c r="N36" s="61"/>
+      <c r="O36" s="61"/>
     </row>
     <row r="37" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="24">
         <v>3</v>
       </c>
-      <c r="C37" s="39" t="s">
+      <c r="C37" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="39">
+      <c r="D37" s="38">
         <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
-      <c r="E37" s="39">
+        <v>1104</v>
+      </c>
+      <c r="E37" s="38">
         <f>P20</f>
-        <v>1380</v>
-      </c>
-      <c r="F37" s="38">
+        <v>0</v>
+      </c>
+      <c r="F37" s="37">
         <f t="shared" si="3"/>
-        <v>2380</v>
-      </c>
-      <c r="G37" s="62">
+        <v>1104</v>
+      </c>
+      <c r="G37" s="44">
         <f>T2+L62</f>
-        <v>1692.5</v>
-      </c>
-      <c r="H37" s="62"/>
-      <c r="I37" s="38">
+        <v>0</v>
+      </c>
+      <c r="H37" s="44"/>
+      <c r="I37" s="37">
         <f>V2</f>
-        <v>792</v>
-      </c>
-      <c r="J37" s="38">
+        <v>436</v>
+      </c>
+      <c r="J37" s="37">
         <f t="shared" si="4"/>
-        <v>2484.5</v>
-      </c>
-      <c r="K37" s="38">
+        <v>436</v>
+      </c>
+      <c r="K37" s="37">
         <f t="shared" si="5"/>
-        <v>-104.5</v>
-      </c>
-      <c r="L37" s="38">
-        <v>1880</v>
-      </c>
-      <c r="M37" s="38">
+        <v>668</v>
+      </c>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37">
         <f t="shared" si="6"/>
-        <v>1984.5</v>
-      </c>
-      <c r="N37" s="65"/>
-      <c r="O37" s="65"/>
+        <v>-668</v>
+      </c>
+      <c r="N37" s="61"/>
+      <c r="O37" s="61"/>
     </row>
     <row r="38" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="24">
         <v>4</v>
       </c>
-      <c r="C38" s="39" t="s">
+      <c r="C38" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="39">
+      <c r="D38" s="38">
         <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
-      <c r="E38" s="39">
+        <v>695</v>
+      </c>
+      <c r="E38" s="38">
         <f>Q20</f>
-        <v>2115</v>
-      </c>
-      <c r="F38" s="38">
+        <v>0</v>
+      </c>
+      <c r="F38" s="37">
         <f t="shared" si="3"/>
-        <v>3115</v>
-      </c>
-      <c r="G38" s="62">
+        <v>695</v>
+      </c>
+      <c r="G38" s="44">
         <f>T2+M62</f>
-        <v>2017.5</v>
-      </c>
-      <c r="H38" s="62"/>
-      <c r="I38" s="38">
+        <v>0</v>
+      </c>
+      <c r="H38" s="44"/>
+      <c r="I38" s="37">
         <f>V2</f>
-        <v>792</v>
-      </c>
-      <c r="J38" s="38">
+        <v>436</v>
+      </c>
+      <c r="J38" s="37">
         <f t="shared" si="4"/>
-        <v>2809.5</v>
-      </c>
-      <c r="K38" s="38">
+        <v>436</v>
+      </c>
+      <c r="K38" s="37">
         <f t="shared" si="5"/>
-        <v>305.5</v>
-      </c>
-      <c r="L38" s="38">
-        <v>1000</v>
-      </c>
-      <c r="M38" s="38">
+        <v>259</v>
+      </c>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37">
         <f t="shared" si="6"/>
-        <v>694.5</v>
-      </c>
-      <c r="N38" s="65"/>
-      <c r="O38" s="65"/>
+        <v>-259</v>
+      </c>
+      <c r="N38" s="61"/>
+      <c r="O38" s="61"/>
     </row>
     <row r="39" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="24">
         <v>5</v>
       </c>
-      <c r="C39" s="39" t="s">
+      <c r="C39" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="38"/>
-      <c r="M39" s="38">
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37">
         <v>1567</v>
       </c>
-      <c r="N39" s="65"/>
-      <c r="O39" s="65"/>
+      <c r="N39" s="61"/>
+      <c r="O39" s="61"/>
     </row>
     <row r="40" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="24">
         <v>6</v>
       </c>
-      <c r="C40" s="39" t="s">
+      <c r="C40" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D40" s="39">
+      <c r="D40" s="38">
         <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
-      <c r="E40" s="39">
+        <v>905</v>
+      </c>
+      <c r="E40" s="38">
         <f>S20</f>
-        <v>700</v>
-      </c>
-      <c r="F40" s="38">
+        <v>0</v>
+      </c>
+      <c r="F40" s="37">
         <f t="shared" si="3"/>
-        <v>1700</v>
-      </c>
-      <c r="G40" s="62">
+        <v>905</v>
+      </c>
+      <c r="G40" s="44">
         <f>T2</f>
-        <v>812.5</v>
-      </c>
-      <c r="H40" s="62"/>
-      <c r="I40" s="38">
+        <v>0</v>
+      </c>
+      <c r="H40" s="44"/>
+      <c r="I40" s="37">
         <f>V2</f>
-        <v>792</v>
-      </c>
-      <c r="J40" s="38">
+        <v>436</v>
+      </c>
+      <c r="J40" s="37">
         <f t="shared" si="4"/>
-        <v>1604.5</v>
-      </c>
-      <c r="K40" s="38">
+        <v>436</v>
+      </c>
+      <c r="K40" s="37">
         <f t="shared" si="5"/>
-        <v>95.5</v>
-      </c>
-      <c r="L40" s="38">
-        <v>1000</v>
-      </c>
-      <c r="M40" s="38">
+        <v>469</v>
+      </c>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37">
         <f t="shared" si="6"/>
-        <v>904.5</v>
-      </c>
-      <c r="N40" s="65"/>
-      <c r="O40" s="65"/>
+        <v>-469</v>
+      </c>
+      <c r="N40" s="61"/>
+      <c r="O40" s="61"/>
     </row>
     <row r="41" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="24">
         <v>7</v>
       </c>
-      <c r="C41" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="63"/>
-      <c r="H41" s="64"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="38">
+      <c r="C41" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="38">
+        <f>E7</f>
         <v>500</v>
       </c>
-      <c r="M41" s="38">
+      <c r="E41" s="38"/>
+      <c r="F41" s="37">
+        <f>SUM(D41:E41)</f>
+        <v>500</v>
+      </c>
+      <c r="G41" s="64"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="37">
+        <f>V2</f>
+        <v>436</v>
+      </c>
+      <c r="J41" s="37">
+        <f>SUM(G41+I41)</f>
+        <v>436</v>
+      </c>
+      <c r="K41" s="37">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37">
         <f>L41-K41</f>
-        <v>500</v>
-      </c>
-      <c r="N41" s="45"/>
-      <c r="O41" s="46"/>
+        <v>-64</v>
+      </c>
+      <c r="N41" s="66"/>
+      <c r="O41" s="67"/>
     </row>
     <row r="42" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:17" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2043,28 +1958,28 @@
       <c r="G43" s="60"/>
       <c r="H43" s="60"/>
       <c r="I43" s="31"/>
-      <c r="J43" s="58" t="s">
+      <c r="J43" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="K43" s="58"/>
-      <c r="L43" s="58"/>
-      <c r="M43" s="58"/>
-      <c r="N43" s="58"/>
-      <c r="O43" s="58"/>
+      <c r="K43" s="45"/>
+      <c r="L43" s="45"/>
+      <c r="M43" s="45"/>
+      <c r="N43" s="45"/>
+      <c r="O43" s="45"/>
       <c r="Q43" s="31"/>
     </row>
     <row r="44" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="59" t="s">
+      <c r="B44" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="61" t="s">
+      <c r="C44" s="78"/>
+      <c r="D44" s="78"/>
+      <c r="E44" s="78"/>
+      <c r="F44" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="G44" s="61"/>
-      <c r="H44" s="61"/>
+      <c r="G44" s="79"/>
+      <c r="H44" s="79"/>
       <c r="J44" s="30" t="s">
         <v>3</v>
       </c>
@@ -2085,37 +2000,29 @@
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B45" s="42" t="s">
+      <c r="B45" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C45" s="43" t="s">
+      <c r="C45" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="44" t="s">
+      <c r="D45" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="44" t="s">
+      <c r="E45" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F45" s="44" t="s">
+      <c r="F45" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G45" s="57" t="s">
+      <c r="G45" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="57"/>
-      <c r="J45" s="29">
-        <v>705</v>
-      </c>
-      <c r="K45" s="29">
-        <v>1205</v>
-      </c>
-      <c r="L45" s="29">
-        <v>880</v>
-      </c>
-      <c r="M45" s="29">
-        <v>1205</v>
-      </c>
+      <c r="H45" s="77"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
       <c r="N45" s="29"/>
       <c r="O45" s="29"/>
     </row>
@@ -2123,19 +2030,13 @@
       <c r="B46" s="33">
         <v>1</v>
       </c>
-      <c r="C46" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D46" s="37">
-        <v>3990</v>
-      </c>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="62"/>
-      <c r="H46" s="62"/>
-      <c r="J46" s="29">
-        <v>52</v>
-      </c>
+      <c r="C46" s="35"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="44"/>
+      <c r="J46" s="29"/>
       <c r="K46" s="29"/>
       <c r="L46" s="29"/>
       <c r="M46" s="29"/>
@@ -2146,16 +2047,12 @@
       <c r="B47" s="33">
         <v>2</v>
       </c>
-      <c r="C47" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" s="37">
-        <v>150</v>
-      </c>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="62"/>
-      <c r="H47" s="62"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
@@ -2167,16 +2064,12 @@
       <c r="B48" s="33">
         <v>3</v>
       </c>
-      <c r="C48" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="D48" s="37">
-        <v>200</v>
-      </c>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="62"/>
-      <c r="H48" s="62"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="44"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
@@ -2186,12 +2079,12 @@
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B49" s="33"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="62"/>
-      <c r="H49" s="62"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="44"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
@@ -2201,12 +2094,12 @@
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B50" s="33"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="62"/>
-      <c r="H50" s="62"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
@@ -2216,12 +2109,12 @@
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B51" s="33"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="62"/>
-      <c r="H51" s="62"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="44"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
@@ -2231,12 +2124,12 @@
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B52" s="33"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="62"/>
-      <c r="H52" s="62"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="44"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
@@ -2246,12 +2139,12 @@
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B53" s="33"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="62"/>
-      <c r="H53" s="62"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="44"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
@@ -2261,12 +2154,12 @@
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B54" s="33"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="62"/>
-      <c r="H54" s="62"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="44"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
@@ -2276,12 +2169,12 @@
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B55" s="33"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="62"/>
-      <c r="H55" s="62"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="44"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
@@ -2291,12 +2184,12 @@
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B56" s="33"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="62"/>
-      <c r="H56" s="62"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="44"/>
+      <c r="H56" s="44"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
@@ -2306,12 +2199,12 @@
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B57" s="33"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="62"/>
-      <c r="H57" s="62"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="44"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
@@ -2321,12 +2214,12 @@
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B58" s="33"/>
-      <c r="C58" s="36"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="62"/>
-      <c r="H58" s="62"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="44"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
@@ -2336,12 +2229,12 @@
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B59" s="33"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="37"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="62"/>
-      <c r="H59" s="62"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="44"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
@@ -2351,12 +2244,12 @@
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B60" s="33"/>
-      <c r="C60" s="36"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="37"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="62"/>
-      <c r="H60" s="62"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="44"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
@@ -2366,12 +2259,12 @@
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B61" s="33"/>
-      <c r="C61" s="36"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="62"/>
-      <c r="H61" s="62"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="44"/>
+      <c r="H61" s="44"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
@@ -2381,27 +2274,27 @@
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B62" s="33"/>
-      <c r="C62" s="36"/>
-      <c r="D62" s="37"/>
-      <c r="E62" s="37"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="62"/>
-      <c r="H62" s="62"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="44"/>
+      <c r="H62" s="44"/>
       <c r="J62" s="29">
         <f t="shared" ref="J62:O62" si="7">SUM(J45:J61)</f>
-        <v>757</v>
+        <v>0</v>
       </c>
       <c r="K62" s="29">
         <f t="shared" si="7"/>
-        <v>1205</v>
+        <v>0</v>
       </c>
       <c r="L62" s="29">
         <f t="shared" si="7"/>
-        <v>880</v>
+        <v>0</v>
       </c>
       <c r="M62" s="29">
         <f t="shared" si="7"/>
-        <v>1205</v>
+        <v>0</v>
       </c>
       <c r="N62" s="29">
         <f t="shared" si="7"/>
@@ -2414,56 +2307,96 @@
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B63" s="33"/>
-      <c r="C63" s="36"/>
-      <c r="D63" s="37"/>
-      <c r="E63" s="37"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="62"/>
-      <c r="H63" s="62"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="44"/>
+      <c r="H63" s="44"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B64" s="33"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="37"/>
-      <c r="E64" s="37"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="62"/>
-      <c r="H64" s="62"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="44"/>
+      <c r="H64" s="44"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="66" t="s">
+      <c r="B65" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C65" s="66"/>
-      <c r="D65" s="37">
+      <c r="C65" s="46"/>
+      <c r="D65" s="36">
         <f>SUM(D46:D64)</f>
-        <v>4340</v>
-      </c>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" s="36"/>
+      <c r="F65" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="G65" s="62">
+      <c r="G65" s="44">
         <f>SUM(G48:G64)</f>
         <v>0</v>
       </c>
-      <c r="H65" s="62"/>
+      <c r="H65" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D15"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="J43:O43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="B32:O32"/>
+    <mergeCell ref="G33:O33"/>
     <mergeCell ref="N34:O34"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B2:D2"/>
@@ -2480,59 +2413,19 @@
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="B32:O32"/>
-    <mergeCell ref="G33:O33"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D15"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="J43:O43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="98" orientation="landscape" r:id="rId1"/>

--- a/Khata.xlsx
+++ b/Khata.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="47">
   <si>
     <t>Sr</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>Bill Summary for the month of DEC-2024</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>food</t>
   </si>
 </sst>
 </file>
@@ -513,6 +519,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -620,9 +629,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -930,8 +936,8 @@
   </sheetPr>
   <dimension ref="A1:W65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T41" sqref="T41"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,60 +961,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="G1" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="N1" s="49" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="N1" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="45" t="s">
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="45"/>
-      <c r="V1" s="47" t="s">
+      <c r="U1" s="46"/>
+      <c r="V1" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="47"/>
+      <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="52" t="s">
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="53"/>
+      <c r="L2" s="54"/>
       <c r="N2" s="20" t="s">
         <v>3</v>
       </c>
@@ -1027,26 +1033,26 @@
       <c r="S2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="55">
-        <f>(I20/4)</f>
-        <v>0</v>
-      </c>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48">
+      <c r="T2" s="56">
+        <f>(I20/3)</f>
+        <v>815</v>
+      </c>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49">
         <f>L20/5</f>
         <v>436</v>
       </c>
-      <c r="W2" s="48"/>
+      <c r="W2" s="49"/>
     </row>
     <row r="3" spans="1:23" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
         <v>1</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
       <c r="E3" s="8"/>
       <c r="G3" s="22" t="s">
         <v>6</v>
@@ -1069,7 +1075,9 @@
       <c r="N3" s="29"/>
       <c r="O3" s="29"/>
       <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
+      <c r="Q3" s="29">
+        <v>317</v>
+      </c>
       <c r="R3" s="29"/>
       <c r="S3" s="29"/>
     </row>
@@ -1077,11 +1085,11 @@
       <c r="A4" s="21">
         <v>2</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
       <c r="E4" s="8">
         <v>1104</v>
       </c>
@@ -1090,10 +1098,10 @@
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="80">
+      <c r="J4" s="44">
         <v>45628</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="44" t="s">
         <v>42</v>
       </c>
       <c r="L4" s="6">
@@ -1110,11 +1118,11 @@
       <c r="A5" s="21">
         <v>3</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
       <c r="E5" s="8">
         <v>1104</v>
       </c>
@@ -1143,19 +1151,23 @@
       <c r="A6" s="21">
         <v>4</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
       <c r="E6" s="8">
         <v>695</v>
       </c>
       <c r="G6" s="21">
         <v>3</v>
       </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="27"/>
+      <c r="H6" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="27">
+        <v>200</v>
+      </c>
       <c r="J6" s="34"/>
       <c r="K6" s="27"/>
       <c r="L6" s="27"/>
@@ -1170,19 +1182,23 @@
       <c r="A7" s="21">
         <v>5</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
       <c r="E7" s="6">
         <v>500</v>
       </c>
       <c r="G7" s="21">
         <v>4</v>
       </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="27"/>
+      <c r="H7" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="27">
+        <v>2245</v>
+      </c>
       <c r="J7" s="23"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -1197,11 +1213,11 @@
       <c r="A8" s="21">
         <v>6</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="6">
         <v>905</v>
       </c>
@@ -1221,12 +1237,12 @@
       <c r="S8" s="29"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
       <c r="E9" s="6">
         <f>SUM(E3:E8)</f>
         <v>4308</v>
@@ -1285,12 +1301,12 @@
       <c r="S11" s="29"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
       <c r="G12" s="21"/>
       <c r="H12" s="8"/>
       <c r="I12" s="6"/>
@@ -1305,13 +1321,13 @@
       <c r="S12" s="29"/>
     </row>
     <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="68">
-        <f>(E9+N20+O20+P20+Q20+R20+S20)-(1567+L20+I20+D65)</f>
-        <v>561</v>
-      </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="70"/>
+      <c r="A13" s="69">
+        <f>(E9+N20+O20+P20+Q20+R20+S20)-(L20+I20+D65)</f>
+        <v>0</v>
+      </c>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="71"/>
       <c r="G13" s="21"/>
       <c r="H13" s="8"/>
       <c r="I13" s="6"/>
@@ -1326,10 +1342,10 @@
       <c r="S13" s="29"/>
     </row>
     <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="71"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="73"/>
+      <c r="A14" s="72"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="74"/>
       <c r="G14" s="21"/>
       <c r="H14" s="8"/>
       <c r="I14" s="6"/>
@@ -1344,10 +1360,10 @@
       <c r="S14" s="29"/>
     </row>
     <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="74"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="76"/>
+      <c r="A15" s="75"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="77"/>
       <c r="G15" s="21"/>
       <c r="H15" s="8"/>
       <c r="I15" s="6"/>
@@ -1438,13 +1454,13 @@
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="13"/>
-      <c r="G20" s="58" t="s">
+      <c r="G20" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="59"/>
+      <c r="H20" s="60"/>
       <c r="I20" s="6">
         <f>SUM(I4:I19)</f>
-        <v>0</v>
+        <v>2445</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6" t="s">
@@ -1468,7 +1484,7 @@
       </c>
       <c r="Q20" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="R20" s="16">
         <f t="shared" si="0"/>
@@ -1489,165 +1505,165 @@
       <c r="B23" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
       <c r="F23" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="60" t="s">
+      <c r="G23" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="60"/>
+      <c r="H23" s="61"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B24" s="21">
         <v>1</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
       <c r="F24" s="14"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B25" s="21">
         <v>2</v>
       </c>
-      <c r="C25" s="46" t="s">
+      <c r="C25" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
       <c r="F25" s="14">
         <f>E4+O20-(T2+V2+K62)</f>
-        <v>668</v>
-      </c>
-      <c r="G25" s="44" t="str">
+        <v>-147</v>
+      </c>
+      <c r="G25" s="45" t="str">
         <f t="shared" ref="G25:G29" si="1">IF(F25&lt;0,"please pay","good")</f>
-        <v>good</v>
-      </c>
-      <c r="H25" s="44"/>
+        <v>please pay</v>
+      </c>
+      <c r="H25" s="45"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B26" s="21">
         <v>3</v>
       </c>
-      <c r="C26" s="46" t="s">
+      <c r="C26" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
       <c r="F26" s="14">
         <f>E5+P20-(T2+V2+L62)</f>
-        <v>668</v>
-      </c>
-      <c r="G26" s="44" t="str">
+        <v>-147</v>
+      </c>
+      <c r="G26" s="45" t="str">
         <f t="shared" si="1"/>
-        <v>good</v>
-      </c>
-      <c r="H26" s="44"/>
+        <v>please pay</v>
+      </c>
+      <c r="H26" s="45"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B27" s="21">
         <v>4</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
       <c r="F27" s="14">
         <f>E6+Q20-(T2+V2+M62)</f>
-        <v>259</v>
-      </c>
-      <c r="G27" s="44" t="str">
+        <v>-239</v>
+      </c>
+      <c r="G27" s="45" t="str">
         <f t="shared" si="1"/>
-        <v>good</v>
-      </c>
-      <c r="H27" s="44"/>
+        <v>please pay</v>
+      </c>
+      <c r="H27" s="45"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B28" s="21">
         <v>5</v>
       </c>
-      <c r="C28" s="46" t="s">
+      <c r="C28" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
       <c r="F28" s="15"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B29" s="21">
         <v>6</v>
       </c>
-      <c r="C29" s="46" t="s">
+      <c r="C29" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
       <c r="F29" s="15">
         <f>E8+S20-(T2+V2+O62)</f>
-        <v>469</v>
-      </c>
-      <c r="G29" s="64" t="str">
+        <v>-346</v>
+      </c>
+      <c r="G29" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>good</v>
-      </c>
-      <c r="H29" s="65"/>
+        <v>please pay</v>
+      </c>
+      <c r="H29" s="66"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
       <c r="F30" s="15"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="66"/>
     </row>
     <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="45"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="46"/>
     </row>
     <row r="33" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="62" t="s">
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="44"/>
-      <c r="M33" s="44"/>
-      <c r="N33" s="44"/>
-      <c r="O33" s="44"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="45"/>
     </row>
     <row r="34" spans="1:17" s="26" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="25" t="s">
@@ -1665,10 +1681,10 @@
       <c r="F34" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="G34" s="63" t="s">
+      <c r="G34" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="H34" s="63"/>
+      <c r="H34" s="64"/>
       <c r="I34" s="39" t="s">
         <v>20</v>
       </c>
@@ -1684,10 +1700,10 @@
       <c r="M34" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="N34" s="56" t="s">
+      <c r="N34" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="O34" s="56"/>
+      <c r="O34" s="57"/>
     </row>
     <row r="35" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="24">
@@ -1699,15 +1715,15 @@
       <c r="D35" s="38"/>
       <c r="E35" s="38"/>
       <c r="F35" s="37"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
       <c r="I35" s="37"/>
       <c r="J35" s="37"/>
       <c r="K35" s="37"/>
       <c r="L35" s="37"/>
       <c r="M35" s="37"/>
-      <c r="N35" s="61"/>
-      <c r="O35" s="61"/>
+      <c r="N35" s="62"/>
+      <c r="O35" s="62"/>
     </row>
     <row r="36" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="24">
@@ -1728,30 +1744,30 @@
         <f t="shared" ref="F36:F40" si="3">SUM(D36:E36)</f>
         <v>1104</v>
       </c>
-      <c r="G36" s="44">
+      <c r="G36" s="45">
         <f>T2+K62</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="44"/>
+        <v>815</v>
+      </c>
+      <c r="H36" s="45"/>
       <c r="I36" s="37">
         <f>V2</f>
         <v>436</v>
       </c>
       <c r="J36" s="37">
         <f t="shared" ref="J36:J40" si="4">SUM(G36:I36)</f>
-        <v>436</v>
+        <v>1251</v>
       </c>
       <c r="K36" s="37">
         <f t="shared" ref="K36:K41" si="5">F36-J36</f>
-        <v>668</v>
+        <v>-147</v>
       </c>
       <c r="L36" s="37"/>
       <c r="M36" s="37">
         <f t="shared" ref="M36:M40" si="6">L36-K36</f>
-        <v>-668</v>
-      </c>
-      <c r="N36" s="61"/>
-      <c r="O36" s="61"/>
+        <v>147</v>
+      </c>
+      <c r="N36" s="62"/>
+      <c r="O36" s="62"/>
     </row>
     <row r="37" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="24">
@@ -1772,30 +1788,30 @@
         <f t="shared" si="3"/>
         <v>1104</v>
       </c>
-      <c r="G37" s="44">
+      <c r="G37" s="45">
         <f>T2+L62</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="44"/>
+        <v>815</v>
+      </c>
+      <c r="H37" s="45"/>
       <c r="I37" s="37">
         <f>V2</f>
         <v>436</v>
       </c>
       <c r="J37" s="37">
         <f t="shared" si="4"/>
-        <v>436</v>
+        <v>1251</v>
       </c>
       <c r="K37" s="37">
         <f t="shared" si="5"/>
-        <v>668</v>
+        <v>-147</v>
       </c>
       <c r="L37" s="37"/>
       <c r="M37" s="37">
         <f t="shared" si="6"/>
-        <v>-668</v>
-      </c>
-      <c r="N37" s="61"/>
-      <c r="O37" s="61"/>
+        <v>147</v>
+      </c>
+      <c r="N37" s="62"/>
+      <c r="O37" s="62"/>
     </row>
     <row r="38" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="24">
@@ -1810,36 +1826,36 @@
       </c>
       <c r="E38" s="38">
         <f>Q20</f>
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="F38" s="37">
         <f t="shared" si="3"/>
-        <v>695</v>
-      </c>
-      <c r="G38" s="44">
+        <v>1012</v>
+      </c>
+      <c r="G38" s="45">
         <f>T2+M62</f>
-        <v>0</v>
-      </c>
-      <c r="H38" s="44"/>
+        <v>815</v>
+      </c>
+      <c r="H38" s="45"/>
       <c r="I38" s="37">
         <f>V2</f>
         <v>436</v>
       </c>
       <c r="J38" s="37">
         <f t="shared" si="4"/>
-        <v>436</v>
+        <v>1251</v>
       </c>
       <c r="K38" s="37">
         <f t="shared" si="5"/>
-        <v>259</v>
+        <v>-239</v>
       </c>
       <c r="L38" s="37"/>
       <c r="M38" s="37">
         <f t="shared" si="6"/>
-        <v>-259</v>
-      </c>
-      <c r="N38" s="61"/>
-      <c r="O38" s="61"/>
+        <v>239</v>
+      </c>
+      <c r="N38" s="62"/>
+      <c r="O38" s="62"/>
     </row>
     <row r="39" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="24">
@@ -1851,8 +1867,8 @@
       <c r="D39" s="38"/>
       <c r="E39" s="38"/>
       <c r="F39" s="37"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
       <c r="I39" s="37"/>
       <c r="J39" s="37"/>
       <c r="K39" s="37"/>
@@ -1860,8 +1876,8 @@
       <c r="M39" s="37">
         <v>1567</v>
       </c>
-      <c r="N39" s="61"/>
-      <c r="O39" s="61"/>
+      <c r="N39" s="62"/>
+      <c r="O39" s="62"/>
     </row>
     <row r="40" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="24">
@@ -1882,30 +1898,30 @@
         <f t="shared" si="3"/>
         <v>905</v>
       </c>
-      <c r="G40" s="44">
+      <c r="G40" s="45">
         <f>T2</f>
-        <v>0</v>
-      </c>
-      <c r="H40" s="44"/>
+        <v>815</v>
+      </c>
+      <c r="H40" s="45"/>
       <c r="I40" s="37">
         <f>V2</f>
         <v>436</v>
       </c>
       <c r="J40" s="37">
         <f t="shared" si="4"/>
-        <v>436</v>
+        <v>1251</v>
       </c>
       <c r="K40" s="37">
         <f t="shared" si="5"/>
-        <v>469</v>
+        <v>-346</v>
       </c>
       <c r="L40" s="37"/>
       <c r="M40" s="37">
         <f t="shared" si="6"/>
-        <v>-469</v>
-      </c>
-      <c r="N40" s="61"/>
-      <c r="O40" s="61"/>
+        <v>346</v>
+      </c>
+      <c r="N40" s="62"/>
+      <c r="O40" s="62"/>
     </row>
     <row r="41" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="24">
@@ -1923,8 +1939,8 @@
         <f>SUM(D41:E41)</f>
         <v>500</v>
       </c>
-      <c r="G41" s="64"/>
-      <c r="H41" s="65"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="66"/>
       <c r="I41" s="37">
         <f>V2</f>
         <v>436</v>
@@ -1942,44 +1958,44 @@
         <f>L41-K41</f>
         <v>-64</v>
       </c>
-      <c r="N41" s="66"/>
-      <c r="O41" s="67"/>
+      <c r="N41" s="67"/>
+      <c r="O41" s="68"/>
     </row>
     <row r="42" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:17" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="31"/>
-      <c r="B43" s="60" t="s">
+      <c r="B43" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="60"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="60"/>
-      <c r="F43" s="60"/>
-      <c r="G43" s="60"/>
-      <c r="H43" s="60"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="61"/>
       <c r="I43" s="31"/>
-      <c r="J43" s="45" t="s">
+      <c r="J43" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="K43" s="45"/>
-      <c r="L43" s="45"/>
-      <c r="M43" s="45"/>
-      <c r="N43" s="45"/>
-      <c r="O43" s="45"/>
+      <c r="K43" s="46"/>
+      <c r="L43" s="46"/>
+      <c r="M43" s="46"/>
+      <c r="N43" s="46"/>
+      <c r="O43" s="46"/>
       <c r="Q43" s="31"/>
     </row>
     <row r="44" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="78" t="s">
+      <c r="B44" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="C44" s="78"/>
-      <c r="D44" s="78"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="79" t="s">
+      <c r="C44" s="79"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="G44" s="79"/>
-      <c r="H44" s="79"/>
+      <c r="G44" s="80"/>
+      <c r="H44" s="80"/>
       <c r="J44" s="30" t="s">
         <v>3</v>
       </c>
@@ -2015,10 +2031,10 @@
       <c r="F45" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G45" s="77" t="s">
+      <c r="G45" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="77"/>
+      <c r="H45" s="78"/>
       <c r="J45" s="29"/>
       <c r="K45" s="29"/>
       <c r="L45" s="29"/>
@@ -2034,8 +2050,8 @@
       <c r="D46" s="36"/>
       <c r="E46" s="36"/>
       <c r="F46" s="36"/>
-      <c r="G46" s="44"/>
-      <c r="H46" s="44"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
       <c r="J46" s="29"/>
       <c r="K46" s="29"/>
       <c r="L46" s="29"/>
@@ -2051,8 +2067,8 @@
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="44"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
@@ -2068,8 +2084,8 @@
       <c r="D48" s="36"/>
       <c r="E48" s="36"/>
       <c r="F48" s="36"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="44"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
@@ -2083,8 +2099,8 @@
       <c r="D49" s="36"/>
       <c r="E49" s="36"/>
       <c r="F49" s="36"/>
-      <c r="G49" s="44"/>
-      <c r="H49" s="44"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
@@ -2098,8 +2114,8 @@
       <c r="D50" s="36"/>
       <c r="E50" s="36"/>
       <c r="F50" s="36"/>
-      <c r="G50" s="44"/>
-      <c r="H50" s="44"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="45"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
@@ -2113,8 +2129,8 @@
       <c r="D51" s="36"/>
       <c r="E51" s="36"/>
       <c r="F51" s="36"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="44"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="45"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
@@ -2128,8 +2144,8 @@
       <c r="D52" s="36"/>
       <c r="E52" s="36"/>
       <c r="F52" s="36"/>
-      <c r="G52" s="44"/>
-      <c r="H52" s="44"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
@@ -2143,8 +2159,8 @@
       <c r="D53" s="36"/>
       <c r="E53" s="36"/>
       <c r="F53" s="36"/>
-      <c r="G53" s="44"/>
-      <c r="H53" s="44"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="45"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
@@ -2158,8 +2174,8 @@
       <c r="D54" s="36"/>
       <c r="E54" s="36"/>
       <c r="F54" s="36"/>
-      <c r="G54" s="44"/>
-      <c r="H54" s="44"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
@@ -2173,8 +2189,8 @@
       <c r="D55" s="36"/>
       <c r="E55" s="36"/>
       <c r="F55" s="36"/>
-      <c r="G55" s="44"/>
-      <c r="H55" s="44"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="45"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
@@ -2188,8 +2204,8 @@
       <c r="D56" s="36"/>
       <c r="E56" s="36"/>
       <c r="F56" s="36"/>
-      <c r="G56" s="44"/>
-      <c r="H56" s="44"/>
+      <c r="G56" s="45"/>
+      <c r="H56" s="45"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
@@ -2203,8 +2219,8 @@
       <c r="D57" s="36"/>
       <c r="E57" s="36"/>
       <c r="F57" s="36"/>
-      <c r="G57" s="44"/>
-      <c r="H57" s="44"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="45"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
@@ -2218,8 +2234,8 @@
       <c r="D58" s="36"/>
       <c r="E58" s="36"/>
       <c r="F58" s="36"/>
-      <c r="G58" s="44"/>
-      <c r="H58" s="44"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
@@ -2233,8 +2249,8 @@
       <c r="D59" s="36"/>
       <c r="E59" s="36"/>
       <c r="F59" s="36"/>
-      <c r="G59" s="44"/>
-      <c r="H59" s="44"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="45"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
@@ -2248,8 +2264,8 @@
       <c r="D60" s="36"/>
       <c r="E60" s="36"/>
       <c r="F60" s="36"/>
-      <c r="G60" s="44"/>
-      <c r="H60" s="44"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="45"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
@@ -2263,8 +2279,8 @@
       <c r="D61" s="36"/>
       <c r="E61" s="36"/>
       <c r="F61" s="36"/>
-      <c r="G61" s="44"/>
-      <c r="H61" s="44"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
@@ -2278,8 +2294,8 @@
       <c r="D62" s="36"/>
       <c r="E62" s="36"/>
       <c r="F62" s="36"/>
-      <c r="G62" s="44"/>
-      <c r="H62" s="44"/>
+      <c r="G62" s="45"/>
+      <c r="H62" s="45"/>
       <c r="J62" s="29">
         <f t="shared" ref="J62:O62" si="7">SUM(J45:J61)</f>
         <v>0</v>
@@ -2311,8 +2327,8 @@
       <c r="D63" s="36"/>
       <c r="E63" s="36"/>
       <c r="F63" s="36"/>
-      <c r="G63" s="44"/>
-      <c r="H63" s="44"/>
+      <c r="G63" s="45"/>
+      <c r="H63" s="45"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B64" s="33"/>
@@ -2320,14 +2336,14 @@
       <c r="D64" s="36"/>
       <c r="E64" s="36"/>
       <c r="F64" s="36"/>
-      <c r="G64" s="44"/>
-      <c r="H64" s="44"/>
+      <c r="G64" s="45"/>
+      <c r="H64" s="45"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="46" t="s">
+      <c r="B65" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C65" s="46"/>
+      <c r="C65" s="47"/>
       <c r="D65" s="36">
         <f>SUM(D46:D64)</f>
         <v>0</v>
@@ -2336,11 +2352,11 @@
       <c r="F65" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="G65" s="44">
+      <c r="G65" s="45">
         <f>SUM(G48:G64)</f>
         <v>0</v>
       </c>
-      <c r="H65" s="44"/>
+      <c r="H65" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="82">

--- a/Khata.xlsx
+++ b/Khata.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="50">
   <si>
     <t>Sr</t>
   </si>
@@ -160,6 +160,15 @@
   </si>
   <si>
     <t>food</t>
+  </si>
+  <si>
+    <t>eggs</t>
+  </si>
+  <si>
+    <t>13-12-2024</t>
+  </si>
+  <si>
+    <t>gas</t>
   </si>
 </sst>
 </file>
@@ -522,112 +531,112 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -937,7 +946,7 @@
   <dimension ref="A1:W65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,60 +970,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="G1" s="46" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="G1" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="N1" s="50" t="s">
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="N1" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="46" t="s">
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="46"/>
-      <c r="V1" s="48" t="s">
+      <c r="U1" s="58"/>
+      <c r="V1" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="48"/>
+      <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
       <c r="E2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="53" t="s">
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="54"/>
+      <c r="L2" s="78"/>
       <c r="N2" s="20" t="s">
         <v>3</v>
       </c>
@@ -1033,26 +1042,26 @@
       <c r="S2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="56">
+      <c r="T2" s="80">
         <f>(I20/3)</f>
-        <v>815</v>
-      </c>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49">
+        <v>1446.6666666666667</v>
+      </c>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73">
         <f>L20/5</f>
-        <v>436</v>
-      </c>
-      <c r="W2" s="49"/>
+        <v>742</v>
+      </c>
+      <c r="W2" s="73"/>
     </row>
     <row r="3" spans="1:23" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
         <v>1</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="8"/>
       <c r="G3" s="22" t="s">
         <v>6</v>
@@ -1073,23 +1082,29 @@
         <v>8</v>
       </c>
       <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
+      <c r="O3" s="29">
+        <v>1000</v>
+      </c>
+      <c r="P3" s="29">
+        <v>1000</v>
+      </c>
       <c r="Q3" s="29">
         <v>317</v>
       </c>
       <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
+      <c r="S3" s="29">
+        <v>300</v>
+      </c>
     </row>
     <row r="4" spans="1:23" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21">
         <v>2</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
       <c r="E4" s="8">
         <v>1104</v>
       </c>
@@ -1110,7 +1125,9 @@
       <c r="N4" s="29"/>
       <c r="O4" s="29"/>
       <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
+      <c r="Q4" s="29">
+        <v>200</v>
+      </c>
       <c r="R4" s="29"/>
       <c r="S4" s="29"/>
     </row>
@@ -1118,11 +1135,11 @@
       <c r="A5" s="21">
         <v>3</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
       <c r="E5" s="8">
         <v>1104</v>
       </c>
@@ -1143,7 +1160,9 @@
       <c r="N5" s="29"/>
       <c r="O5" s="29"/>
       <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
+      <c r="Q5" s="29">
+        <v>380</v>
+      </c>
       <c r="R5" s="29"/>
       <c r="S5" s="29"/>
     </row>
@@ -1151,11 +1170,11 @@
       <c r="A6" s="21">
         <v>4</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
       <c r="E6" s="8">
         <v>695</v>
       </c>
@@ -1169,12 +1188,18 @@
         <v>200</v>
       </c>
       <c r="J6" s="34"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
+      <c r="K6" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="27">
+        <v>380</v>
+      </c>
       <c r="N6" s="29"/>
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
+      <c r="Q6" s="29">
+        <v>545</v>
+      </c>
       <c r="R6" s="29"/>
       <c r="S6" s="29"/>
     </row>
@@ -1182,11 +1207,11 @@
       <c r="A7" s="21">
         <v>5</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
       <c r="E7" s="6">
         <v>500</v>
       </c>
@@ -1213,19 +1238,23 @@
       <c r="A8" s="21">
         <v>6</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
       <c r="E8" s="6">
         <v>905</v>
       </c>
       <c r="G8" s="21">
         <v>5</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="27"/>
+      <c r="H8" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="27">
+        <v>200</v>
+      </c>
       <c r="J8" s="23"/>
       <c r="K8" s="27"/>
       <c r="L8" s="27"/>
@@ -1236,13 +1265,13 @@
       <c r="R8" s="29"/>
       <c r="S8" s="29"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+    <row r="9" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
       <c r="E9" s="6">
         <f>SUM(E3:E8)</f>
         <v>4308</v>
@@ -1250,11 +1279,21 @@
       <c r="G9" s="21">
         <v>6</v>
       </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="27"/>
+      <c r="H9" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="27">
+        <v>1695</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" s="27">
+        <v>480</v>
+      </c>
       <c r="N9" s="29"/>
       <c r="O9" s="29"/>
       <c r="P9" s="29"/>
@@ -1273,8 +1312,12 @@
       <c r="H10" s="8"/>
       <c r="I10" s="6"/>
       <c r="J10" s="23"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
+      <c r="K10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="6">
+        <v>350</v>
+      </c>
       <c r="N10" s="29"/>
       <c r="O10" s="29"/>
       <c r="P10" s="29"/>
@@ -1291,8 +1334,12 @@
       <c r="H11" s="8"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
+      <c r="K11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" s="6">
+        <v>320</v>
+      </c>
       <c r="N11" s="29"/>
       <c r="O11" s="29"/>
       <c r="P11" s="29"/>
@@ -1301,12 +1348,12 @@
       <c r="S11" s="29"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
       <c r="G12" s="21"/>
       <c r="H12" s="8"/>
       <c r="I12" s="6"/>
@@ -1321,13 +1368,13 @@
       <c r="S12" s="29"/>
     </row>
     <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="69">
+      <c r="A13" s="48">
         <f>(E9+N20+O20+P20+Q20+R20+S20)-(L20+I20+D65)</f>
         <v>0</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="71"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="50"/>
       <c r="G13" s="21"/>
       <c r="H13" s="8"/>
       <c r="I13" s="6"/>
@@ -1342,10 +1389,10 @@
       <c r="S13" s="29"/>
     </row>
     <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="72"/>
-      <c r="B14" s="73"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="74"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="53"/>
       <c r="G14" s="21"/>
       <c r="H14" s="8"/>
       <c r="I14" s="6"/>
@@ -1360,10 +1407,10 @@
       <c r="S14" s="29"/>
     </row>
     <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="75"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="77"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="56"/>
       <c r="G15" s="21"/>
       <c r="H15" s="8"/>
       <c r="I15" s="6"/>
@@ -1454,13 +1501,13 @@
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="13"/>
-      <c r="G20" s="59" t="s">
+      <c r="G20" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="60"/>
+      <c r="H20" s="72"/>
       <c r="I20" s="6">
         <f>SUM(I4:I19)</f>
-        <v>2445</v>
+        <v>4340</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6" t="s">
@@ -1468,7 +1515,7 @@
       </c>
       <c r="L20" s="6">
         <f>SUM(L4:L19)</f>
-        <v>2180</v>
+        <v>3710</v>
       </c>
       <c r="N20" s="16">
         <f t="shared" ref="N20:S20" si="0">SUM(N3:N19)</f>
@@ -1476,15 +1523,15 @@
       </c>
       <c r="O20" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="P20" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Q20" s="16">
         <f t="shared" si="0"/>
-        <v>317</v>
+        <v>1442</v>
       </c>
       <c r="R20" s="16">
         <f t="shared" si="0"/>
@@ -1492,7 +1539,7 @@
       </c>
       <c r="S20" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -1505,165 +1552,165 @@
       <c r="B23" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
       <c r="F23" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="61" t="s">
+      <c r="G23" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="61"/>
+      <c r="H23" s="60"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B24" s="21">
         <v>1</v>
       </c>
-      <c r="C24" s="47" t="s">
+      <c r="C24" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
       <c r="F24" s="14"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B25" s="21">
         <v>2</v>
       </c>
-      <c r="C25" s="47" t="s">
+      <c r="C25" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
       <c r="F25" s="14">
         <f>E4+O20-(T2+V2+K62)</f>
-        <v>-147</v>
-      </c>
-      <c r="G25" s="45" t="str">
+        <v>-84.66666666666697</v>
+      </c>
+      <c r="G25" s="62" t="str">
         <f t="shared" ref="G25:G29" si="1">IF(F25&lt;0,"please pay","good")</f>
         <v>please pay</v>
       </c>
-      <c r="H25" s="45"/>
+      <c r="H25" s="62"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B26" s="21">
         <v>3</v>
       </c>
-      <c r="C26" s="47" t="s">
+      <c r="C26" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
       <c r="F26" s="14">
         <f>E5+P20-(T2+V2+L62)</f>
-        <v>-147</v>
-      </c>
-      <c r="G26" s="45" t="str">
+        <v>-84.66666666666697</v>
+      </c>
+      <c r="G26" s="62" t="str">
         <f t="shared" si="1"/>
         <v>please pay</v>
       </c>
-      <c r="H26" s="45"/>
+      <c r="H26" s="62"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B27" s="21">
         <v>4</v>
       </c>
-      <c r="C27" s="47" t="s">
+      <c r="C27" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
       <c r="F27" s="14">
         <f>E6+Q20-(T2+V2+M62)</f>
-        <v>-239</v>
-      </c>
-      <c r="G27" s="45" t="str">
+        <v>-51.66666666666697</v>
+      </c>
+      <c r="G27" s="62" t="str">
         <f t="shared" si="1"/>
         <v>please pay</v>
       </c>
-      <c r="H27" s="45"/>
+      <c r="H27" s="62"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B28" s="21">
         <v>5</v>
       </c>
-      <c r="C28" s="47" t="s">
+      <c r="C28" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
       <c r="F28" s="15"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B29" s="21">
         <v>6</v>
       </c>
-      <c r="C29" s="47" t="s">
+      <c r="C29" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
       <c r="F29" s="15">
         <f>E8+S20-(T2+V2+O62)</f>
-        <v>-346</v>
-      </c>
-      <c r="G29" s="65" t="str">
+        <v>-983.66666666666697</v>
+      </c>
+      <c r="G29" s="63" t="str">
         <f t="shared" si="1"/>
         <v>please pay</v>
       </c>
-      <c r="H29" s="66"/>
+      <c r="H29" s="64"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
       <c r="F30" s="15"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="66"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="64"/>
     </row>
     <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="46"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="58"/>
+      <c r="O32" s="58"/>
     </row>
     <row r="33" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="63" t="s">
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="45"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="62"/>
     </row>
     <row r="34" spans="1:17" s="26" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="25" t="s">
@@ -1681,10 +1728,10 @@
       <c r="F34" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="G34" s="64" t="s">
+      <c r="G34" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="H34" s="64"/>
+      <c r="H34" s="68"/>
       <c r="I34" s="39" t="s">
         <v>20</v>
       </c>
@@ -1700,10 +1747,10 @@
       <c r="M34" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="N34" s="57" t="s">
+      <c r="N34" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="O34" s="57"/>
+      <c r="O34" s="69"/>
     </row>
     <row r="35" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="24">
@@ -1715,15 +1762,17 @@
       <c r="D35" s="38"/>
       <c r="E35" s="38"/>
       <c r="F35" s="37"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="62"/>
       <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
+      <c r="J35" s="37">
+        <v>80</v>
+      </c>
       <c r="K35" s="37"/>
       <c r="L35" s="37"/>
       <c r="M35" s="37"/>
-      <c r="N35" s="62"/>
-      <c r="O35" s="62"/>
+      <c r="N35" s="65"/>
+      <c r="O35" s="65"/>
     </row>
     <row r="36" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="24">
@@ -1738,36 +1787,36 @@
       </c>
       <c r="E36" s="38">
         <f>O20</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F36" s="37">
         <f t="shared" ref="F36:F40" si="3">SUM(D36:E36)</f>
-        <v>1104</v>
-      </c>
-      <c r="G36" s="45">
+        <v>2104</v>
+      </c>
+      <c r="G36" s="62">
         <f>T2+K62</f>
-        <v>815</v>
-      </c>
-      <c r="H36" s="45"/>
+        <v>1446.6666666666667</v>
+      </c>
+      <c r="H36" s="62"/>
       <c r="I36" s="37">
         <f>V2</f>
-        <v>436</v>
+        <v>742</v>
       </c>
       <c r="J36" s="37">
         <f t="shared" ref="J36:J40" si="4">SUM(G36:I36)</f>
-        <v>1251</v>
+        <v>2188.666666666667</v>
       </c>
       <c r="K36" s="37">
         <f t="shared" ref="K36:K41" si="5">F36-J36</f>
-        <v>-147</v>
+        <v>-84.66666666666697</v>
       </c>
       <c r="L36" s="37"/>
       <c r="M36" s="37">
         <f t="shared" ref="M36:M40" si="6">L36-K36</f>
-        <v>147</v>
-      </c>
-      <c r="N36" s="62"/>
-      <c r="O36" s="62"/>
+        <v>84.66666666666697</v>
+      </c>
+      <c r="N36" s="65"/>
+      <c r="O36" s="65"/>
     </row>
     <row r="37" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="24">
@@ -1782,36 +1831,36 @@
       </c>
       <c r="E37" s="38">
         <f>P20</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F37" s="37">
         <f t="shared" si="3"/>
-        <v>1104</v>
-      </c>
-      <c r="G37" s="45">
+        <v>2104</v>
+      </c>
+      <c r="G37" s="62">
         <f>T2+L62</f>
-        <v>815</v>
-      </c>
-      <c r="H37" s="45"/>
+        <v>1446.6666666666667</v>
+      </c>
+      <c r="H37" s="62"/>
       <c r="I37" s="37">
         <f>V2</f>
-        <v>436</v>
+        <v>742</v>
       </c>
       <c r="J37" s="37">
         <f t="shared" si="4"/>
-        <v>1251</v>
+        <v>2188.666666666667</v>
       </c>
       <c r="K37" s="37">
         <f t="shared" si="5"/>
-        <v>-147</v>
+        <v>-84.66666666666697</v>
       </c>
       <c r="L37" s="37"/>
       <c r="M37" s="37">
         <f t="shared" si="6"/>
-        <v>147</v>
-      </c>
-      <c r="N37" s="62"/>
-      <c r="O37" s="62"/>
+        <v>84.66666666666697</v>
+      </c>
+      <c r="N37" s="65"/>
+      <c r="O37" s="65"/>
     </row>
     <row r="38" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="24">
@@ -1826,36 +1875,36 @@
       </c>
       <c r="E38" s="38">
         <f>Q20</f>
-        <v>317</v>
+        <v>1442</v>
       </c>
       <c r="F38" s="37">
         <f t="shared" si="3"/>
-        <v>1012</v>
-      </c>
-      <c r="G38" s="45">
+        <v>2137</v>
+      </c>
+      <c r="G38" s="62">
         <f>T2+M62</f>
-        <v>815</v>
-      </c>
-      <c r="H38" s="45"/>
+        <v>1446.6666666666667</v>
+      </c>
+      <c r="H38" s="62"/>
       <c r="I38" s="37">
         <f>V2</f>
-        <v>436</v>
+        <v>742</v>
       </c>
       <c r="J38" s="37">
         <f t="shared" si="4"/>
-        <v>1251</v>
+        <v>2188.666666666667</v>
       </c>
       <c r="K38" s="37">
         <f t="shared" si="5"/>
-        <v>-239</v>
+        <v>-51.66666666666697</v>
       </c>
       <c r="L38" s="37"/>
       <c r="M38" s="37">
         <f t="shared" si="6"/>
-        <v>239</v>
-      </c>
-      <c r="N38" s="62"/>
-      <c r="O38" s="62"/>
+        <v>51.66666666666697</v>
+      </c>
+      <c r="N38" s="65"/>
+      <c r="O38" s="65"/>
     </row>
     <row r="39" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="24">
@@ -1867,8 +1916,8 @@
       <c r="D39" s="38"/>
       <c r="E39" s="38"/>
       <c r="F39" s="37"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="62"/>
       <c r="I39" s="37"/>
       <c r="J39" s="37"/>
       <c r="K39" s="37"/>
@@ -1876,8 +1925,8 @@
       <c r="M39" s="37">
         <v>1567</v>
       </c>
-      <c r="N39" s="62"/>
-      <c r="O39" s="62"/>
+      <c r="N39" s="65"/>
+      <c r="O39" s="65"/>
     </row>
     <row r="40" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="24">
@@ -1892,36 +1941,35 @@
       </c>
       <c r="E40" s="38">
         <f>S20</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F40" s="37">
         <f t="shared" si="3"/>
-        <v>905</v>
-      </c>
-      <c r="G40" s="45">
-        <f>T2</f>
-        <v>815</v>
-      </c>
-      <c r="H40" s="45"/>
+        <v>1205</v>
+      </c>
+      <c r="G40" s="62">
+        <v>881</v>
+      </c>
+      <c r="H40" s="62"/>
       <c r="I40" s="37">
         <f>V2</f>
-        <v>436</v>
+        <v>742</v>
       </c>
       <c r="J40" s="37">
         <f t="shared" si="4"/>
-        <v>1251</v>
+        <v>1623</v>
       </c>
       <c r="K40" s="37">
         <f t="shared" si="5"/>
-        <v>-346</v>
+        <v>-418</v>
       </c>
       <c r="L40" s="37"/>
       <c r="M40" s="37">
         <f t="shared" si="6"/>
-        <v>346</v>
-      </c>
-      <c r="N40" s="62"/>
-      <c r="O40" s="62"/>
+        <v>418</v>
+      </c>
+      <c r="N40" s="65"/>
+      <c r="O40" s="65"/>
     </row>
     <row r="41" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="24">
@@ -1939,63 +1987,63 @@
         <f>SUM(D41:E41)</f>
         <v>500</v>
       </c>
-      <c r="G41" s="65"/>
-      <c r="H41" s="66"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="64"/>
       <c r="I41" s="37">
         <f>V2</f>
-        <v>436</v>
+        <v>742</v>
       </c>
       <c r="J41" s="37">
         <f>SUM(G41+I41)</f>
-        <v>436</v>
+        <v>742</v>
       </c>
       <c r="K41" s="37">
         <f t="shared" si="5"/>
-        <v>64</v>
+        <v>-242</v>
       </c>
       <c r="L41" s="37"/>
       <c r="M41" s="37">
         <f>L41-K41</f>
-        <v>-64</v>
-      </c>
-      <c r="N41" s="67"/>
-      <c r="O41" s="68"/>
+        <v>242</v>
+      </c>
+      <c r="N41" s="45"/>
+      <c r="O41" s="46"/>
     </row>
     <row r="42" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:17" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="31"/>
-      <c r="B43" s="61" t="s">
+      <c r="B43" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="61"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
       <c r="I43" s="31"/>
-      <c r="J43" s="46" t="s">
+      <c r="J43" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="K43" s="46"/>
-      <c r="L43" s="46"/>
-      <c r="M43" s="46"/>
-      <c r="N43" s="46"/>
-      <c r="O43" s="46"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="58"/>
+      <c r="M43" s="58"/>
+      <c r="N43" s="58"/>
+      <c r="O43" s="58"/>
       <c r="Q43" s="31"/>
     </row>
     <row r="44" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="79" t="s">
+      <c r="B44" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="C44" s="79"/>
-      <c r="D44" s="79"/>
-      <c r="E44" s="79"/>
-      <c r="F44" s="80" t="s">
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="G44" s="80"/>
-      <c r="H44" s="80"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="61"/>
       <c r="J44" s="30" t="s">
         <v>3</v>
       </c>
@@ -2031,10 +2079,10 @@
       <c r="F45" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G45" s="78" t="s">
+      <c r="G45" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="78"/>
+      <c r="H45" s="57"/>
       <c r="J45" s="29"/>
       <c r="K45" s="29"/>
       <c r="L45" s="29"/>
@@ -2050,8 +2098,8 @@
       <c r="D46" s="36"/>
       <c r="E46" s="36"/>
       <c r="F46" s="36"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="45"/>
+      <c r="G46" s="62"/>
+      <c r="H46" s="62"/>
       <c r="J46" s="29"/>
       <c r="K46" s="29"/>
       <c r="L46" s="29"/>
@@ -2067,8 +2115,8 @@
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="62"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
@@ -2084,8 +2132,8 @@
       <c r="D48" s="36"/>
       <c r="E48" s="36"/>
       <c r="F48" s="36"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="45"/>
+      <c r="G48" s="62"/>
+      <c r="H48" s="62"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
@@ -2099,8 +2147,8 @@
       <c r="D49" s="36"/>
       <c r="E49" s="36"/>
       <c r="F49" s="36"/>
-      <c r="G49" s="45"/>
-      <c r="H49" s="45"/>
+      <c r="G49" s="62"/>
+      <c r="H49" s="62"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
@@ -2114,8 +2162,8 @@
       <c r="D50" s="36"/>
       <c r="E50" s="36"/>
       <c r="F50" s="36"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="45"/>
+      <c r="G50" s="62"/>
+      <c r="H50" s="62"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
@@ -2129,8 +2177,8 @@
       <c r="D51" s="36"/>
       <c r="E51" s="36"/>
       <c r="F51" s="36"/>
-      <c r="G51" s="45"/>
-      <c r="H51" s="45"/>
+      <c r="G51" s="62"/>
+      <c r="H51" s="62"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
@@ -2144,8 +2192,8 @@
       <c r="D52" s="36"/>
       <c r="E52" s="36"/>
       <c r="F52" s="36"/>
-      <c r="G52" s="45"/>
-      <c r="H52" s="45"/>
+      <c r="G52" s="62"/>
+      <c r="H52" s="62"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
@@ -2159,8 +2207,8 @@
       <c r="D53" s="36"/>
       <c r="E53" s="36"/>
       <c r="F53" s="36"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="45"/>
+      <c r="G53" s="62"/>
+      <c r="H53" s="62"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
@@ -2174,8 +2222,8 @@
       <c r="D54" s="36"/>
       <c r="E54" s="36"/>
       <c r="F54" s="36"/>
-      <c r="G54" s="45"/>
-      <c r="H54" s="45"/>
+      <c r="G54" s="62"/>
+      <c r="H54" s="62"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
@@ -2189,8 +2237,8 @@
       <c r="D55" s="36"/>
       <c r="E55" s="36"/>
       <c r="F55" s="36"/>
-      <c r="G55" s="45"/>
-      <c r="H55" s="45"/>
+      <c r="G55" s="62"/>
+      <c r="H55" s="62"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
@@ -2204,8 +2252,8 @@
       <c r="D56" s="36"/>
       <c r="E56" s="36"/>
       <c r="F56" s="36"/>
-      <c r="G56" s="45"/>
-      <c r="H56" s="45"/>
+      <c r="G56" s="62"/>
+      <c r="H56" s="62"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
@@ -2219,8 +2267,8 @@
       <c r="D57" s="36"/>
       <c r="E57" s="36"/>
       <c r="F57" s="36"/>
-      <c r="G57" s="45"/>
-      <c r="H57" s="45"/>
+      <c r="G57" s="62"/>
+      <c r="H57" s="62"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
@@ -2234,8 +2282,8 @@
       <c r="D58" s="36"/>
       <c r="E58" s="36"/>
       <c r="F58" s="36"/>
-      <c r="G58" s="45"/>
-      <c r="H58" s="45"/>
+      <c r="G58" s="62"/>
+      <c r="H58" s="62"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
@@ -2249,8 +2297,8 @@
       <c r="D59" s="36"/>
       <c r="E59" s="36"/>
       <c r="F59" s="36"/>
-      <c r="G59" s="45"/>
-      <c r="H59" s="45"/>
+      <c r="G59" s="62"/>
+      <c r="H59" s="62"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
@@ -2264,8 +2312,8 @@
       <c r="D60" s="36"/>
       <c r="E60" s="36"/>
       <c r="F60" s="36"/>
-      <c r="G60" s="45"/>
-      <c r="H60" s="45"/>
+      <c r="G60" s="62"/>
+      <c r="H60" s="62"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
@@ -2279,8 +2327,8 @@
       <c r="D61" s="36"/>
       <c r="E61" s="36"/>
       <c r="F61" s="36"/>
-      <c r="G61" s="45"/>
-      <c r="H61" s="45"/>
+      <c r="G61" s="62"/>
+      <c r="H61" s="62"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
@@ -2294,8 +2342,8 @@
       <c r="D62" s="36"/>
       <c r="E62" s="36"/>
       <c r="F62" s="36"/>
-      <c r="G62" s="45"/>
-      <c r="H62" s="45"/>
+      <c r="G62" s="62"/>
+      <c r="H62" s="62"/>
       <c r="J62" s="29">
         <f t="shared" ref="J62:O62" si="7">SUM(J45:J61)</f>
         <v>0</v>
@@ -2327,8 +2375,8 @@
       <c r="D63" s="36"/>
       <c r="E63" s="36"/>
       <c r="F63" s="36"/>
-      <c r="G63" s="45"/>
-      <c r="H63" s="45"/>
+      <c r="G63" s="62"/>
+      <c r="H63" s="62"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B64" s="33"/>
@@ -2336,14 +2384,14 @@
       <c r="D64" s="36"/>
       <c r="E64" s="36"/>
       <c r="F64" s="36"/>
-      <c r="G64" s="45"/>
-      <c r="H64" s="45"/>
+      <c r="G64" s="62"/>
+      <c r="H64" s="62"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="47" t="s">
+      <c r="B65" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C65" s="47"/>
+      <c r="C65" s="66"/>
       <c r="D65" s="36">
         <f>SUM(D46:D64)</f>
         <v>0</v>
@@ -2352,14 +2400,80 @@
       <c r="F65" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="G65" s="45">
+      <c r="G65" s="62">
         <f>SUM(G48:G64)</f>
         <v>0</v>
       </c>
-      <c r="H65" s="45"/>
+      <c r="H65" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="B32:O32"/>
+    <mergeCell ref="G33:O33"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G65:H65"/>
     <mergeCell ref="N41:O41"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A13:D15"/>
@@ -2376,72 +2490,6 @@
     <mergeCell ref="N37:O37"/>
     <mergeCell ref="N38:O38"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="B32:O32"/>
-    <mergeCell ref="G33:O33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="98" orientation="landscape" r:id="rId1"/>

--- a/Khata.xlsx
+++ b/Khata.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="55">
   <si>
     <t>Sr</t>
   </si>
@@ -147,28 +147,43 @@
     <t>Expence Dec 2024</t>
   </si>
   <si>
-    <t>sugar,lipton</t>
-  </si>
-  <si>
-    <t>Milk</t>
-  </si>
-  <si>
-    <t>Bill Summary for the month of DEC-2024</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>eggs</t>
-  </si>
-  <si>
-    <t>13-12-2024</t>
-  </si>
-  <si>
     <t>gas</t>
+  </si>
+  <si>
+    <t>Aqsa</t>
+  </si>
+  <si>
+    <t>milk</t>
+  </si>
+  <si>
+    <t>Tea expaance jan 2025 = 750</t>
+  </si>
+  <si>
+    <t>Mansoor</t>
+  </si>
+  <si>
+    <t>Tea expaance jan 2025 = 400</t>
+  </si>
+  <si>
+    <t>babu Ijaz</t>
+  </si>
+  <si>
+    <t>Tea samosa</t>
+  </si>
+  <si>
+    <t>Azhar</t>
+  </si>
+  <si>
+    <t>180+600</t>
+  </si>
+  <si>
+    <t>Bill Summary for the month of JAN-2025</t>
+  </si>
+  <si>
+    <t>lipton</t>
+  </si>
+  <si>
+    <t>jan</t>
   </si>
 </sst>
 </file>
@@ -403,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -531,15 +546,81 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -570,73 +651,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -945,8 +963,8 @@
   </sheetPr>
   <dimension ref="A1:W65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,62 +988,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="G1" s="58" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="G1" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="N1" s="74" t="s">
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="N1" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="58" t="s">
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="58"/>
-      <c r="V1" s="47" t="s">
+      <c r="U1" s="47"/>
+      <c r="V1" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="47"/>
+      <c r="W1" s="49"/>
     </row>
     <row r="2" spans="1:23" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
       <c r="E2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="77" t="s">
+      <c r="G2" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="77" t="s">
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="78"/>
+      <c r="L2" s="55"/>
       <c r="N2" s="20" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="O2" s="20" t="s">
         <v>4</v>
@@ -1042,26 +1060,26 @@
       <c r="S2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="80">
+      <c r="T2" s="57">
         <f>(I20/3)</f>
-        <v>1446.6666666666667</v>
-      </c>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73">
+        <v>0</v>
+      </c>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50">
         <f>L20/5</f>
-        <v>742</v>
-      </c>
-      <c r="W2" s="73"/>
+        <v>661</v>
+      </c>
+      <c r="W2" s="50"/>
     </row>
     <row r="3" spans="1:23" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
         <v>1</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
       <c r="E3" s="8"/>
       <c r="G3" s="22" t="s">
         <v>6</v>
@@ -1082,51 +1100,47 @@
         <v>8</v>
       </c>
       <c r="N3" s="29"/>
-      <c r="O3" s="29">
-        <v>1000</v>
-      </c>
+      <c r="O3" s="29"/>
       <c r="P3" s="29">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="Q3" s="29">
-        <v>317</v>
+        <v>750</v>
       </c>
       <c r="R3" s="29"/>
       <c r="S3" s="29">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21">
         <v>2</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="8">
-        <v>1104</v>
-      </c>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="8"/>
       <c r="G4" s="21">
         <v>1</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="44">
-        <v>45628</v>
-      </c>
+      <c r="J4" s="44"/>
       <c r="K4" s="44" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L4" s="6">
-        <v>480</v>
+        <v>80</v>
       </c>
       <c r="N4" s="29"/>
       <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
+      <c r="P4" s="29">
+        <v>150</v>
+      </c>
       <c r="Q4" s="29">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="R4" s="29"/>
       <c r="S4" s="29"/>
@@ -1135,34 +1149,26 @@
       <c r="A5" s="21">
         <v>3</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="8">
-        <v>1104</v>
-      </c>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="8"/>
       <c r="G5" s="21">
         <v>2</v>
       </c>
       <c r="H5" s="28"/>
       <c r="I5" s="27"/>
-      <c r="J5" s="9">
-        <v>45628</v>
-      </c>
-      <c r="K5" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" s="27">
-        <v>1700</v>
-      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="27"/>
       <c r="N5" s="29"/>
       <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29">
-        <v>380</v>
-      </c>
+      <c r="P5" s="29">
+        <v>180</v>
+      </c>
+      <c r="Q5" s="29"/>
       <c r="R5" s="29"/>
       <c r="S5" s="29"/>
     </row>
@@ -1170,36 +1176,28 @@
       <c r="A6" s="21">
         <v>4</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="8">
-        <v>695</v>
-      </c>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="8"/>
       <c r="G6" s="21">
         <v>3</v>
       </c>
-      <c r="H6" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="27">
-        <v>200</v>
-      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
       <c r="J6" s="34"/>
-      <c r="K6" s="27" t="s">
-        <v>47</v>
-      </c>
+      <c r="K6" s="27"/>
       <c r="L6" s="27">
-        <v>380</v>
+        <v>180</v>
       </c>
       <c r="N6" s="29"/>
       <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29">
-        <v>545</v>
-      </c>
+      <c r="P6" s="29">
+        <v>600</v>
+      </c>
+      <c r="Q6" s="29"/>
       <c r="R6" s="29"/>
       <c r="S6" s="29"/>
     </row>
@@ -1207,26 +1205,24 @@
       <c r="A7" s="21">
         <v>5</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="6">
-        <v>500</v>
-      </c>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="6"/>
       <c r="G7" s="21">
         <v>4</v>
       </c>
-      <c r="H7" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="27">
-        <v>2245</v>
-      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
       <c r="J7" s="23"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+      <c r="K7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="45">
+        <v>600</v>
+      </c>
       <c r="N7" s="29"/>
       <c r="O7" s="29"/>
       <c r="P7" s="29"/>
@@ -1238,26 +1234,24 @@
       <c r="A8" s="21">
         <v>6</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="6">
-        <v>905</v>
-      </c>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="6"/>
       <c r="G8" s="21">
         <v>5</v>
       </c>
-      <c r="H8" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="27">
-        <v>200</v>
-      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
       <c r="J8" s="23"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
+      <c r="K8" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="27">
+        <v>750</v>
+      </c>
       <c r="N8" s="29"/>
       <c r="O8" s="29"/>
       <c r="P8" s="29"/>
@@ -1265,34 +1259,28 @@
       <c r="R8" s="29"/>
       <c r="S8" s="29"/>
     </row>
-    <row r="9" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="62" t="s">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
       <c r="E9" s="6">
         <f>SUM(E3:E8)</f>
-        <v>4308</v>
+        <v>0</v>
       </c>
       <c r="G9" s="21">
         <v>6</v>
       </c>
-      <c r="H9" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="27">
-        <v>1695</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>48</v>
-      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="23"/>
       <c r="K9" s="28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L9" s="27">
-        <v>480</v>
+        <v>150</v>
       </c>
       <c r="N9" s="29"/>
       <c r="O9" s="29"/>
@@ -1312,11 +1300,9 @@
       <c r="H10" s="8"/>
       <c r="I10" s="6"/>
       <c r="J10" s="23"/>
-      <c r="K10" s="6" t="s">
-        <v>49</v>
-      </c>
+      <c r="K10" s="6"/>
       <c r="L10" s="6">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="N10" s="29"/>
       <c r="O10" s="29"/>
@@ -1330,15 +1316,19 @@
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="13"/>
-      <c r="G11" s="21"/>
+      <c r="G11" s="21">
+        <v>8</v>
+      </c>
       <c r="H11" s="8"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+      <c r="J11" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="K11" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L11" s="6">
-        <v>320</v>
+        <v>1145</v>
       </c>
       <c r="N11" s="29"/>
       <c r="O11" s="29"/>
@@ -1348,13 +1338,15 @@
       <c r="S11" s="29"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="G12" s="21"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="G12" s="21">
+        <v>9</v>
+      </c>
       <c r="H12" s="8"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -1368,13 +1360,13 @@
       <c r="S12" s="29"/>
     </row>
     <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="48">
+      <c r="A13" s="70">
         <f>(E9+N20+O20+P20+Q20+R20+S20)-(L20+I20+D65)</f>
-        <v>0</v>
-      </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="50"/>
+        <v>-995</v>
+      </c>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="72"/>
       <c r="G13" s="21"/>
       <c r="H13" s="8"/>
       <c r="I13" s="6"/>
@@ -1389,10 +1381,10 @@
       <c r="S13" s="29"/>
     </row>
     <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="53"/>
+      <c r="A14" s="73"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="75"/>
       <c r="G14" s="21"/>
       <c r="H14" s="8"/>
       <c r="I14" s="6"/>
@@ -1407,10 +1399,10 @@
       <c r="S14" s="29"/>
     </row>
     <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="56"/>
+      <c r="A15" s="76"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="78"/>
       <c r="G15" s="21"/>
       <c r="H15" s="8"/>
       <c r="I15" s="6"/>
@@ -1501,13 +1493,13 @@
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="13"/>
-      <c r="G20" s="71" t="s">
+      <c r="G20" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="72"/>
+      <c r="H20" s="61"/>
       <c r="I20" s="6">
         <f>SUM(I4:I19)</f>
-        <v>4340</v>
+        <v>0</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6" t="s">
@@ -1515,7 +1507,7 @@
       </c>
       <c r="L20" s="6">
         <f>SUM(L4:L19)</f>
-        <v>3710</v>
+        <v>3305</v>
       </c>
       <c r="N20" s="16">
         <f t="shared" ref="N20:S20" si="0">SUM(N3:N19)</f>
@@ -1523,15 +1515,15 @@
       </c>
       <c r="O20" s="16">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="16">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>1010</v>
       </c>
       <c r="Q20" s="16">
         <f t="shared" si="0"/>
-        <v>1442</v>
+        <v>900</v>
       </c>
       <c r="R20" s="16">
         <f t="shared" si="0"/>
@@ -1539,7 +1531,7 @@
       </c>
       <c r="S20" s="16">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -1552,165 +1544,194 @@
       <c r="B23" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
       <c r="F23" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="60" t="s">
+      <c r="G23" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="60"/>
+      <c r="H23" s="62"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B24" s="21">
         <v>1</v>
       </c>
-      <c r="C24" s="66" t="s">
+      <c r="C24" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
       <c r="F24" s="14"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B25" s="21">
         <v>2</v>
       </c>
-      <c r="C25" s="66" t="s">
+      <c r="C25" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
       <c r="F25" s="14">
         <f>E4+O20-(T2+V2+K62)</f>
-        <v>-84.66666666666697</v>
-      </c>
-      <c r="G25" s="62" t="str">
+        <v>-661</v>
+      </c>
+      <c r="G25" s="46" t="str">
         <f t="shared" ref="G25:G29" si="1">IF(F25&lt;0,"please pay","good")</f>
         <v>please pay</v>
       </c>
-      <c r="H25" s="62"/>
+      <c r="H25" s="46"/>
+      <c r="N25" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B26" s="21">
         <v>3</v>
       </c>
-      <c r="C26" s="66" t="s">
+      <c r="C26" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
       <c r="F26" s="14">
         <f>E5+P20-(T2+V2+L62)</f>
-        <v>-84.66666666666697</v>
-      </c>
-      <c r="G26" s="62" t="str">
+        <v>349</v>
+      </c>
+      <c r="G26" s="46" t="str">
         <f t="shared" si="1"/>
-        <v>please pay</v>
-      </c>
-      <c r="H26" s="62"/>
+        <v>good</v>
+      </c>
+      <c r="H26" s="46"/>
+      <c r="N26" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B27" s="21">
         <v>4</v>
       </c>
-      <c r="C27" s="66" t="s">
+      <c r="C27" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
       <c r="F27" s="14">
         <f>E6+Q20-(T2+V2+M62)</f>
-        <v>-51.66666666666697</v>
-      </c>
-      <c r="G27" s="62" t="str">
+        <v>239</v>
+      </c>
+      <c r="G27" s="46" t="str">
         <f t="shared" si="1"/>
-        <v>please pay</v>
-      </c>
-      <c r="H27" s="62"/>
+        <v>good</v>
+      </c>
+      <c r="H27" s="46"/>
+      <c r="N27" t="s">
+        <v>49</v>
+      </c>
+      <c r="P27" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B28" s="21">
         <v>5</v>
       </c>
-      <c r="C28" s="66" t="s">
+      <c r="C28" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
       <c r="F28" s="15"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="N28" t="s">
+        <v>44</v>
+      </c>
+      <c r="P28">
+        <v>150</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B29" s="21">
         <v>6</v>
       </c>
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
       <c r="F29" s="15">
-        <f>E8+S20-(T2+V2+O62)</f>
-        <v>-983.66666666666697</v>
-      </c>
-      <c r="G29" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="G29" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>please pay</v>
-      </c>
-      <c r="H29" s="64"/>
+        <v>good</v>
+      </c>
+      <c r="H29" s="67"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
       <c r="F30" s="15"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="64"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="67"/>
     </row>
     <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="58"/>
-      <c r="O32" s="58"/>
+      <c r="B32" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
     </row>
     <row r="33" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="67" t="s">
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="62"/>
-      <c r="O33" s="62"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="46"/>
     </row>
     <row r="34" spans="1:17" s="26" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="25" t="s">
@@ -1728,10 +1749,10 @@
       <c r="F34" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="G34" s="68" t="s">
+      <c r="G34" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="H34" s="68"/>
+      <c r="H34" s="65"/>
       <c r="I34" s="39" t="s">
         <v>20</v>
       </c>
@@ -1747,10 +1768,10 @@
       <c r="M34" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="N34" s="69" t="s">
+      <c r="N34" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="O34" s="69"/>
+      <c r="O34" s="58"/>
     </row>
     <row r="35" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="24">
@@ -1762,17 +1783,19 @@
       <c r="D35" s="38"/>
       <c r="E35" s="38"/>
       <c r="F35" s="37"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
       <c r="I35" s="37"/>
       <c r="J35" s="37">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="K35" s="37"/>
       <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="65"/>
-      <c r="O35" s="65"/>
+      <c r="M35" s="37">
+        <v>200</v>
+      </c>
+      <c r="N35" s="63"/>
+      <c r="O35" s="63"/>
     </row>
     <row r="36" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="24">
@@ -1783,40 +1806,42 @@
       </c>
       <c r="D36" s="38">
         <f t="shared" ref="D36:D40" si="2">E4</f>
-        <v>1104</v>
+        <v>0</v>
       </c>
       <c r="E36" s="38">
         <f>O20</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F36" s="37">
         <f t="shared" ref="F36:F40" si="3">SUM(D36:E36)</f>
-        <v>2104</v>
-      </c>
-      <c r="G36" s="62">
+        <v>0</v>
+      </c>
+      <c r="G36" s="46">
         <f>T2+K62</f>
-        <v>1446.6666666666667</v>
-      </c>
-      <c r="H36" s="62"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="46"/>
       <c r="I36" s="37">
         <f>V2</f>
-        <v>742</v>
+        <v>661</v>
       </c>
       <c r="J36" s="37">
         <f t="shared" ref="J36:J40" si="4">SUM(G36:I36)</f>
-        <v>2188.666666666667</v>
+        <v>661</v>
       </c>
       <c r="K36" s="37">
         <f t="shared" ref="K36:K41" si="5">F36-J36</f>
-        <v>-84.66666666666697</v>
-      </c>
-      <c r="L36" s="37"/>
+        <v>-661</v>
+      </c>
+      <c r="L36" s="37">
+        <v>39</v>
+      </c>
       <c r="M36" s="37">
         <f t="shared" ref="M36:M40" si="6">L36-K36</f>
-        <v>84.66666666666697</v>
-      </c>
-      <c r="N36" s="65"/>
-      <c r="O36" s="65"/>
+        <v>700</v>
+      </c>
+      <c r="N36" s="63"/>
+      <c r="O36" s="63"/>
     </row>
     <row r="37" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="24">
@@ -1827,40 +1852,42 @@
       </c>
       <c r="D37" s="38">
         <f t="shared" si="2"/>
-        <v>1104</v>
+        <v>0</v>
       </c>
       <c r="E37" s="38">
         <f>P20</f>
-        <v>1000</v>
+        <v>1010</v>
       </c>
       <c r="F37" s="37">
         <f t="shared" si="3"/>
-        <v>2104</v>
-      </c>
-      <c r="G37" s="62">
+        <v>1010</v>
+      </c>
+      <c r="G37" s="46">
         <f>T2+L62</f>
-        <v>1446.6666666666667</v>
-      </c>
-      <c r="H37" s="62"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="46"/>
       <c r="I37" s="37">
         <f>V2</f>
-        <v>742</v>
+        <v>661</v>
       </c>
       <c r="J37" s="37">
         <f t="shared" si="4"/>
-        <v>2188.666666666667</v>
+        <v>661</v>
       </c>
       <c r="K37" s="37">
         <f t="shared" si="5"/>
-        <v>-84.66666666666697</v>
-      </c>
-      <c r="L37" s="37"/>
+        <v>349</v>
+      </c>
+      <c r="L37" s="37">
+        <v>39</v>
+      </c>
       <c r="M37" s="37">
         <f t="shared" si="6"/>
-        <v>84.66666666666697</v>
-      </c>
-      <c r="N37" s="65"/>
-      <c r="O37" s="65"/>
+        <v>-310</v>
+      </c>
+      <c r="N37" s="63"/>
+      <c r="O37" s="63"/>
     </row>
     <row r="38" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="24">
@@ -1871,40 +1898,42 @@
       </c>
       <c r="D38" s="38">
         <f t="shared" si="2"/>
-        <v>695</v>
+        <v>0</v>
       </c>
       <c r="E38" s="38">
         <f>Q20</f>
-        <v>1442</v>
+        <v>900</v>
       </c>
       <c r="F38" s="37">
         <f t="shared" si="3"/>
-        <v>2137</v>
-      </c>
-      <c r="G38" s="62">
+        <v>900</v>
+      </c>
+      <c r="G38" s="46">
         <f>T2+M62</f>
-        <v>1446.6666666666667</v>
-      </c>
-      <c r="H38" s="62"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="46"/>
       <c r="I38" s="37">
         <f>V2</f>
-        <v>742</v>
+        <v>661</v>
       </c>
       <c r="J38" s="37">
         <f t="shared" si="4"/>
-        <v>2188.666666666667</v>
+        <v>661</v>
       </c>
       <c r="K38" s="37">
         <f t="shared" si="5"/>
-        <v>-51.66666666666697</v>
-      </c>
-      <c r="L38" s="37"/>
+        <v>239</v>
+      </c>
+      <c r="L38" s="37">
+        <v>39</v>
+      </c>
       <c r="M38" s="37">
         <f t="shared" si="6"/>
-        <v>51.66666666666697</v>
-      </c>
-      <c r="N38" s="65"/>
-      <c r="O38" s="65"/>
+        <v>-200</v>
+      </c>
+      <c r="N38" s="63"/>
+      <c r="O38" s="63"/>
     </row>
     <row r="39" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="24">
@@ -1916,8 +1945,8 @@
       <c r="D39" s="38"/>
       <c r="E39" s="38"/>
       <c r="F39" s="37"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
       <c r="I39" s="37"/>
       <c r="J39" s="37"/>
       <c r="K39" s="37"/>
@@ -1925,8 +1954,8 @@
       <c r="M39" s="37">
         <v>1567</v>
       </c>
-      <c r="N39" s="65"/>
-      <c r="O39" s="65"/>
+      <c r="N39" s="63"/>
+      <c r="O39" s="63"/>
     </row>
     <row r="40" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="24">
@@ -1937,39 +1966,39 @@
       </c>
       <c r="D40" s="38">
         <f t="shared" si="2"/>
-        <v>905</v>
+        <v>0</v>
       </c>
       <c r="E40" s="38">
         <f>S20</f>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F40" s="37">
         <f t="shared" si="3"/>
-        <v>1205</v>
-      </c>
-      <c r="G40" s="62">
-        <v>881</v>
-      </c>
-      <c r="H40" s="62"/>
+        <v>400</v>
+      </c>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
       <c r="I40" s="37">
         <f>V2</f>
-        <v>742</v>
+        <v>661</v>
       </c>
       <c r="J40" s="37">
         <f t="shared" si="4"/>
-        <v>1623</v>
+        <v>661</v>
       </c>
       <c r="K40" s="37">
         <f t="shared" si="5"/>
-        <v>-418</v>
-      </c>
-      <c r="L40" s="37"/>
+        <v>-261</v>
+      </c>
+      <c r="L40" s="37">
+        <v>39</v>
+      </c>
       <c r="M40" s="37">
         <f t="shared" si="6"/>
-        <v>418</v>
-      </c>
-      <c r="N40" s="65"/>
-      <c r="O40" s="65"/>
+        <v>300</v>
+      </c>
+      <c r="N40" s="63"/>
+      <c r="O40" s="63"/>
     </row>
     <row r="41" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="24">
@@ -1980,70 +2009,75 @@
       </c>
       <c r="D41" s="38">
         <f>E7</f>
-        <v>500</v>
-      </c>
-      <c r="E41" s="38"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="38">
+        <f>N20</f>
+        <v>0</v>
+      </c>
       <c r="F41" s="37">
         <f>SUM(D41:E41)</f>
-        <v>500</v>
-      </c>
-      <c r="G41" s="63"/>
-      <c r="H41" s="64"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="66"/>
+      <c r="H41" s="67"/>
       <c r="I41" s="37">
         <f>V2</f>
-        <v>742</v>
+        <v>661</v>
       </c>
       <c r="J41" s="37">
         <f>SUM(G41+I41)</f>
-        <v>742</v>
+        <v>661</v>
       </c>
       <c r="K41" s="37">
         <f t="shared" si="5"/>
-        <v>-242</v>
-      </c>
-      <c r="L41" s="37"/>
+        <v>-661</v>
+      </c>
+      <c r="L41" s="37">
+        <v>39</v>
+      </c>
       <c r="M41" s="37">
         <f>L41-K41</f>
-        <v>242</v>
-      </c>
-      <c r="N41" s="45"/>
-      <c r="O41" s="46"/>
+        <v>700</v>
+      </c>
+      <c r="N41" s="68"/>
+      <c r="O41" s="69"/>
     </row>
     <row r="42" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:17" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="31"/>
-      <c r="B43" s="60" t="s">
+      <c r="B43" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="60"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="60"/>
-      <c r="F43" s="60"/>
-      <c r="G43" s="60"/>
-      <c r="H43" s="60"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="62"/>
       <c r="I43" s="31"/>
-      <c r="J43" s="58" t="s">
+      <c r="J43" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="K43" s="58"/>
-      <c r="L43" s="58"/>
-      <c r="M43" s="58"/>
-      <c r="N43" s="58"/>
-      <c r="O43" s="58"/>
+      <c r="K43" s="47"/>
+      <c r="L43" s="47"/>
+      <c r="M43" s="47"/>
+      <c r="N43" s="47"/>
+      <c r="O43" s="47"/>
       <c r="Q43" s="31"/>
     </row>
     <row r="44" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="59" t="s">
+      <c r="B44" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="61" t="s">
+      <c r="C44" s="80"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="G44" s="61"/>
-      <c r="H44" s="61"/>
+      <c r="G44" s="81"/>
+      <c r="H44" s="81"/>
       <c r="J44" s="30" t="s">
         <v>3</v>
       </c>
@@ -2079,10 +2113,10 @@
       <c r="F45" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G45" s="57" t="s">
+      <c r="G45" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="57"/>
+      <c r="H45" s="79"/>
       <c r="J45" s="29"/>
       <c r="K45" s="29"/>
       <c r="L45" s="29"/>
@@ -2098,8 +2132,8 @@
       <c r="D46" s="36"/>
       <c r="E46" s="36"/>
       <c r="F46" s="36"/>
-      <c r="G46" s="62"/>
-      <c r="H46" s="62"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
       <c r="J46" s="29"/>
       <c r="K46" s="29"/>
       <c r="L46" s="29"/>
@@ -2115,8 +2149,8 @@
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
-      <c r="G47" s="62"/>
-      <c r="H47" s="62"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
@@ -2132,8 +2166,8 @@
       <c r="D48" s="36"/>
       <c r="E48" s="36"/>
       <c r="F48" s="36"/>
-      <c r="G48" s="62"/>
-      <c r="H48" s="62"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
@@ -2147,8 +2181,8 @@
       <c r="D49" s="36"/>
       <c r="E49" s="36"/>
       <c r="F49" s="36"/>
-      <c r="G49" s="62"/>
-      <c r="H49" s="62"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="46"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
@@ -2162,8 +2196,8 @@
       <c r="D50" s="36"/>
       <c r="E50" s="36"/>
       <c r="F50" s="36"/>
-      <c r="G50" s="62"/>
-      <c r="H50" s="62"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
@@ -2177,8 +2211,8 @@
       <c r="D51" s="36"/>
       <c r="E51" s="36"/>
       <c r="F51" s="36"/>
-      <c r="G51" s="62"/>
-      <c r="H51" s="62"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="46"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
@@ -2192,8 +2226,8 @@
       <c r="D52" s="36"/>
       <c r="E52" s="36"/>
       <c r="F52" s="36"/>
-      <c r="G52" s="62"/>
-      <c r="H52" s="62"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="46"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
@@ -2207,8 +2241,8 @@
       <c r="D53" s="36"/>
       <c r="E53" s="36"/>
       <c r="F53" s="36"/>
-      <c r="G53" s="62"/>
-      <c r="H53" s="62"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="46"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
@@ -2222,8 +2256,8 @@
       <c r="D54" s="36"/>
       <c r="E54" s="36"/>
       <c r="F54" s="36"/>
-      <c r="G54" s="62"/>
-      <c r="H54" s="62"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
@@ -2237,8 +2271,8 @@
       <c r="D55" s="36"/>
       <c r="E55" s="36"/>
       <c r="F55" s="36"/>
-      <c r="G55" s="62"/>
-      <c r="H55" s="62"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="46"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
@@ -2252,8 +2286,8 @@
       <c r="D56" s="36"/>
       <c r="E56" s="36"/>
       <c r="F56" s="36"/>
-      <c r="G56" s="62"/>
-      <c r="H56" s="62"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
@@ -2267,8 +2301,8 @@
       <c r="D57" s="36"/>
       <c r="E57" s="36"/>
       <c r="F57" s="36"/>
-      <c r="G57" s="62"/>
-      <c r="H57" s="62"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
@@ -2282,8 +2316,8 @@
       <c r="D58" s="36"/>
       <c r="E58" s="36"/>
       <c r="F58" s="36"/>
-      <c r="G58" s="62"/>
-      <c r="H58" s="62"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="46"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
@@ -2297,8 +2331,8 @@
       <c r="D59" s="36"/>
       <c r="E59" s="36"/>
       <c r="F59" s="36"/>
-      <c r="G59" s="62"/>
-      <c r="H59" s="62"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="46"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
@@ -2312,8 +2346,8 @@
       <c r="D60" s="36"/>
       <c r="E60" s="36"/>
       <c r="F60" s="36"/>
-      <c r="G60" s="62"/>
-      <c r="H60" s="62"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="46"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
@@ -2327,8 +2361,8 @@
       <c r="D61" s="36"/>
       <c r="E61" s="36"/>
       <c r="F61" s="36"/>
-      <c r="G61" s="62"/>
-      <c r="H61" s="62"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="46"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
@@ -2342,8 +2376,8 @@
       <c r="D62" s="36"/>
       <c r="E62" s="36"/>
       <c r="F62" s="36"/>
-      <c r="G62" s="62"/>
-      <c r="H62" s="62"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="46"/>
       <c r="J62" s="29">
         <f t="shared" ref="J62:O62" si="7">SUM(J45:J61)</f>
         <v>0</v>
@@ -2375,8 +2409,8 @@
       <c r="D63" s="36"/>
       <c r="E63" s="36"/>
       <c r="F63" s="36"/>
-      <c r="G63" s="62"/>
-      <c r="H63" s="62"/>
+      <c r="G63" s="46"/>
+      <c r="H63" s="46"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B64" s="33"/>
@@ -2384,14 +2418,14 @@
       <c r="D64" s="36"/>
       <c r="E64" s="36"/>
       <c r="F64" s="36"/>
-      <c r="G64" s="62"/>
-      <c r="H64" s="62"/>
+      <c r="G64" s="46"/>
+      <c r="H64" s="46"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="66" t="s">
+      <c r="B65" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C65" s="66"/>
+      <c r="C65" s="48"/>
       <c r="D65" s="36">
         <f>SUM(D46:D64)</f>
         <v>0</v>
@@ -2400,27 +2434,67 @@
       <c r="F65" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="G65" s="62">
+      <c r="G65" s="46">
         <f>SUM(G48:G64)</f>
         <v>0</v>
       </c>
-      <c r="H65" s="62"/>
+      <c r="H65" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D15"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="J43:O43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="B32:O32"/>
+    <mergeCell ref="G33:O33"/>
     <mergeCell ref="N34:O34"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B2:D2"/>
@@ -2437,59 +2511,19 @@
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="B32:O32"/>
-    <mergeCell ref="G33:O33"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D15"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="J43:O43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="98" orientation="landscape" r:id="rId1"/>
